--- a/make_lrt_json/LAT-content_Mod1_2.xlsx
+++ b/make_lrt_json/LAT-content_Mod1_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amiadhgrandt-nesher/Workbench/aaa/make_lrt_json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB15251A-72C6-3A4D-A1EA-C3B2816EF595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E9DE65-022D-474D-8DD1-BFD8B8C4A420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47700" yWindow="-8960" windowWidth="40460" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Content by Screen" sheetId="1" r:id="rId1"/>
@@ -999,13 +999,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1017,6 +1010,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1239,11 +1239,11 @@
   </sheetPr>
   <dimension ref="A1:BC1025"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="W30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J76" sqref="J76"/>
+      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1291,46 +1291,46 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29" t="s">
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
-      <c r="V1" s="29" t="s">
+      <c r="V1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="28"/>
-      <c r="X1" s="27" t="s">
+      <c r="W1" s="33"/>
+      <c r="X1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
       <c r="AO1" s="3"/>
@@ -4707,10 +4707,10 @@
         <v>37</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>113</v>
@@ -4719,14 +4719,10 @@
         <v>21</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="I39" s="18" t="s">
-        <v>122</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
       <c r="J39" s="17"/>
       <c r="K39" s="17"/>
       <c r="L39" s="17"/>
@@ -4742,7 +4738,7 @@
       <c r="V39" s="17"/>
       <c r="W39" s="17"/>
       <c r="X39" s="15">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Y39" s="18" t="s">
         <v>35</v>
@@ -4755,7 +4751,7 @@
       </c>
       <c r="AB39" s="17"/>
       <c r="AC39" s="15">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AD39" s="18" t="s">
         <v>37</v>
@@ -4763,7 +4759,7 @@
       <c r="AE39" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AF39" s="33" t="s">
+      <c r="AF39" s="30" t="s">
         <v>39</v>
       </c>
       <c r="AG39" s="9"/>
@@ -4774,10 +4770,10 @@
       <c r="AJ39" s="9"/>
       <c r="AK39" s="9"/>
       <c r="AL39" s="9"/>
-      <c r="AM39" s="15" t="s">
+      <c r="AM39" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="AN39" s="18"/>
+      <c r="AN39" s="17"/>
       <c r="AO39" s="9"/>
       <c r="AP39" s="9"/>
       <c r="AQ39" s="9"/>
@@ -4802,10 +4798,10 @@
         <v>38</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="E40" s="18" t="s">
         <v>113</v>
@@ -4814,10 +4810,10 @@
         <v>21</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="I40" s="18"/>
       <c r="J40" s="17"/>
@@ -4835,10 +4831,10 @@
       <c r="V40" s="17"/>
       <c r="W40" s="17"/>
       <c r="X40" s="15">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y40" s="18" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="Z40" s="15" t="s">
         <v>22</v>
@@ -4848,7 +4844,7 @@
       </c>
       <c r="AB40" s="17"/>
       <c r="AC40" s="15">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AD40" s="18" t="s">
         <v>37</v>
@@ -4856,7 +4852,7 @@
       <c r="AE40" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AF40" s="33" t="s">
+      <c r="AF40" s="30" t="s">
         <v>39</v>
       </c>
       <c r="AG40" s="9"/>
@@ -4867,10 +4863,10 @@
       <c r="AJ40" s="9"/>
       <c r="AK40" s="9"/>
       <c r="AL40" s="9"/>
-      <c r="AM40" s="15" t="s">
+      <c r="AM40" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="AN40" s="18"/>
+      <c r="AN40" s="17"/>
       <c r="AO40" s="9"/>
       <c r="AP40" s="9"/>
       <c r="AQ40" s="9"/>
@@ -4895,10 +4891,10 @@
         <v>39</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>113</v>
@@ -4913,7 +4909,7 @@
         <v>128</v>
       </c>
       <c r="I41" s="17"/>
-      <c r="J41" s="34" t="s">
+      <c r="J41" s="31" t="s">
         <v>212</v>
       </c>
       <c r="K41" s="18" t="s">
@@ -4945,10 +4941,10 @@
         <v>38</v>
       </c>
       <c r="AB41" s="18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AC41" s="15">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AD41" s="18" t="s">
         <v>132</v>
@@ -4997,10 +4993,10 @@
         <v>40</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>113</v>
@@ -5009,10 +5005,10 @@
         <v>21</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
+        <v>142</v>
+      </c>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
@@ -5028,7 +5024,7 @@
       <c r="V42" s="17"/>
       <c r="W42" s="17"/>
       <c r="X42" s="15">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Y42" s="18" t="s">
         <v>35</v>
@@ -5041,7 +5037,7 @@
       </c>
       <c r="AB42" s="17"/>
       <c r="AC42" s="15">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AD42" s="18" t="s">
         <v>37</v>
@@ -5049,7 +5045,7 @@
       <c r="AE42" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AF42" s="33" t="s">
+      <c r="AF42" s="30" t="s">
         <v>39</v>
       </c>
       <c r="AG42" s="9"/>
@@ -5088,10 +5084,10 @@
         <v>41</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E43" s="18" t="s">
         <v>113</v>
@@ -5100,12 +5096,14 @@
         <v>21</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="I43" s="18"/>
+        <v>144</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>145</v>
+      </c>
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
       <c r="L43" s="17"/>
@@ -5121,10 +5119,10 @@
       <c r="V43" s="17"/>
       <c r="W43" s="17"/>
       <c r="X43" s="15">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Y43" s="18" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="Z43" s="15" t="s">
         <v>22</v>
@@ -5134,7 +5132,7 @@
       </c>
       <c r="AB43" s="17"/>
       <c r="AC43" s="15">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AD43" s="18" t="s">
         <v>37</v>
@@ -5142,7 +5140,7 @@
       <c r="AE43" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AF43" s="33" t="s">
+      <c r="AF43" s="30" t="s">
         <v>39</v>
       </c>
       <c r="AG43" s="9"/>
@@ -5181,10 +5179,10 @@
         <v>42</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E44" s="18" t="s">
         <v>113</v>
@@ -5199,7 +5197,7 @@
         <v>128</v>
       </c>
       <c r="I44" s="17"/>
-      <c r="J44" s="34" t="s">
+      <c r="J44" s="31" t="s">
         <v>212</v>
       </c>
       <c r="K44" s="18" t="s">
@@ -5231,10 +5229,10 @@
         <v>38</v>
       </c>
       <c r="AB44" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC44" s="15">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD44" s="18" t="s">
         <v>132</v>
@@ -5275,96 +5273,102 @@
       <c r="BB44" s="9"/>
       <c r="BC44" s="9"/>
     </row>
-    <row r="45" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:55" s="29" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
         <v>111</v>
       </c>
       <c r="B45" s="20">
         <v>43</v>
       </c>
-      <c r="C45" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="E45" s="18" t="s">
+      <c r="C45" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F45" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G45" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="17"/>
-      <c r="V45" s="17"/>
-      <c r="W45" s="17"/>
-      <c r="X45" s="15">
-        <v>44</v>
-      </c>
-      <c r="Y45" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z45" s="15" t="s">
+      <c r="G45" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="27"/>
+      <c r="X45" s="28">
+        <v>47</v>
+      </c>
+      <c r="Y45" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z45" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="AA45" s="15" t="s">
+      <c r="AA45" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="AB45" s="17"/>
-      <c r="AC45" s="15">
-        <v>46</v>
-      </c>
-      <c r="AD45" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE45" s="15" t="s">
+      <c r="AB45" s="27"/>
+      <c r="AC45" s="28">
+        <v>55</v>
+      </c>
+      <c r="AD45" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE45" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="AF45" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG45" s="9"/>
-      <c r="AH45" s="9" t="s">
+      <c r="AF45" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG45" s="28"/>
+      <c r="AH45" s="28">
+        <v>57</v>
+      </c>
+      <c r="AI45" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="AJ45" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK45" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL45" s="28"/>
+      <c r="AM45" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="AI45" s="17"/>
-      <c r="AJ45" s="9"/>
-      <c r="AK45" s="9"/>
-      <c r="AL45" s="9"/>
-      <c r="AM45" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="AN45" s="17"/>
-      <c r="AO45" s="9"/>
-      <c r="AP45" s="9"/>
-      <c r="AQ45" s="9"/>
-      <c r="AR45" s="9"/>
-      <c r="AS45" s="9"/>
-      <c r="AT45" s="9"/>
-      <c r="AU45" s="9"/>
-      <c r="AV45" s="9"/>
-      <c r="AW45" s="9"/>
-      <c r="AX45" s="9"/>
-      <c r="AY45" s="9"/>
-      <c r="AZ45" s="9"/>
-      <c r="BA45" s="9"/>
-      <c r="BB45" s="9"/>
-      <c r="BC45" s="9"/>
+      <c r="AN45" s="27"/>
+      <c r="AO45" s="28"/>
+      <c r="AP45" s="28"/>
+      <c r="AQ45" s="28"/>
+      <c r="AR45" s="28"/>
+      <c r="AS45" s="28"/>
+      <c r="AT45" s="28"/>
+      <c r="AU45" s="28"/>
+      <c r="AV45" s="28"/>
+      <c r="AW45" s="28"/>
+      <c r="AX45" s="28"/>
+      <c r="AY45" s="28"/>
+      <c r="AZ45" s="28"/>
+      <c r="BA45" s="28"/>
+      <c r="BB45" s="28"/>
+      <c r="BC45" s="28"/>
     </row>
     <row r="46" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
@@ -5374,10 +5378,10 @@
         <v>44</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="E46" s="18" t="s">
         <v>113</v>
@@ -5386,14 +5390,12 @@
         <v>21</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="I46" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="I46" s="18"/>
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
       <c r="L46" s="17"/>
@@ -5409,42 +5411,37 @@
       <c r="V46" s="17"/>
       <c r="W46" s="17"/>
       <c r="X46" s="15">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Y46" s="18" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="Z46" s="15" t="s">
         <v>22</v>
       </c>
       <c r="AA46" s="15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="AB46" s="17"/>
-      <c r="AC46" s="15">
-        <v>46</v>
-      </c>
-      <c r="AD46" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE46" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF46" s="33" t="s">
-        <v>39</v>
-      </c>
+      <c r="AC46" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD46" s="17"/>
+      <c r="AE46" s="9"/>
+      <c r="AF46" s="9"/>
       <c r="AG46" s="9"/>
       <c r="AH46" s="9" t="s">
         <v>205</v>
       </c>
       <c r="AI46" s="17"/>
       <c r="AJ46" s="9"/>
-      <c r="AK46" s="9"/>
       <c r="AL46" s="9"/>
-      <c r="AM46" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="AN46" s="17"/>
+      <c r="AM46" s="15">
+        <v>46</v>
+      </c>
+      <c r="AN46" s="18" t="s">
+        <v>158</v>
+      </c>
       <c r="AO46" s="9"/>
       <c r="AP46" s="9"/>
       <c r="AQ46" s="9"/>
@@ -5462,17 +5459,17 @@
       <c r="BC46" s="9"/>
     </row>
     <row r="47" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="s">
-        <v>126</v>
+      <c r="A47" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="B47" s="20">
         <v>45</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="E47" s="18" t="s">
         <v>113</v>
@@ -5481,23 +5478,21 @@
         <v>21</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>128</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="H47" s="17"/>
       <c r="I47" s="17"/>
-      <c r="J47" s="34" t="s">
-        <v>212</v>
+      <c r="J47" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="K47" s="18" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="L47" s="18" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="M47" s="18" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="N47" s="17"/>
       <c r="O47" s="17"/>
@@ -5509,8 +5504,11 @@
       <c r="U47" s="17"/>
       <c r="V47" s="17"/>
       <c r="W47" s="17"/>
-      <c r="Y47" s="26" t="s">
-        <v>206</v>
+      <c r="X47" s="15">
+        <v>49</v>
+      </c>
+      <c r="Y47" s="18" t="s">
+        <v>164</v>
       </c>
       <c r="Z47" s="24" t="s">
         <v>22</v>
@@ -5518,34 +5516,38 @@
       <c r="AA47" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AB47" s="18" t="s">
-        <v>209</v>
-      </c>
+      <c r="AB47" s="17"/>
       <c r="AC47" s="15">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="AD47" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE47" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE47" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AF47" s="15" t="s">
+      <c r="AF47" s="24" t="s">
         <v>31</v>
       </c>
       <c r="AG47" s="9"/>
-      <c r="AH47" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="AI47" s="17"/>
-      <c r="AJ47" s="9"/>
-      <c r="AK47" s="9"/>
+      <c r="AH47" s="15">
+        <v>53</v>
+      </c>
+      <c r="AI47" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ47" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK47" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="AL47" s="9"/>
       <c r="AM47" s="15">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AN47" s="18" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="AO47" s="9"/>
       <c r="AP47" s="9"/>
@@ -5563,116 +5565,117 @@
       <c r="BB47" s="9"/>
       <c r="BC47" s="9"/>
     </row>
-    <row r="48" spans="1:55" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
         <v>111</v>
       </c>
       <c r="B48" s="20">
         <v>46</v>
       </c>
-      <c r="C48" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E48" s="30" t="s">
+      <c r="C48" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E48" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F48" s="31" t="s">
+      <c r="F48" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G48" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="30"/>
-      <c r="W48" s="30"/>
-      <c r="X48" s="31">
-        <v>47</v>
-      </c>
-      <c r="Y48" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z48" s="31" t="s">
+      <c r="G48" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="L48" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="M48" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="N48" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="O48" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="P48" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q48" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="X48" s="15">
+        <v>50</v>
+      </c>
+      <c r="Y48" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z48" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AA48" s="31" t="s">
+      <c r="AA48" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AB48" s="30"/>
-      <c r="AC48" s="31">
-        <v>55</v>
-      </c>
-      <c r="AD48" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE48" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF48" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG48" s="31"/>
-      <c r="AH48" s="31">
-        <v>57</v>
-      </c>
-      <c r="AI48" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="AJ48" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK48" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL48" s="31"/>
-      <c r="AM48" s="31" t="s">
+      <c r="AB48" s="17"/>
+      <c r="AC48" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="AN48" s="30"/>
-      <c r="AO48" s="31"/>
-      <c r="AP48" s="31"/>
-      <c r="AQ48" s="31"/>
-      <c r="AR48" s="31"/>
-      <c r="AS48" s="31"/>
-      <c r="AT48" s="31"/>
-      <c r="AU48" s="31"/>
-      <c r="AV48" s="31"/>
-      <c r="AW48" s="31"/>
-      <c r="AX48" s="31"/>
-      <c r="AY48" s="31"/>
-      <c r="AZ48" s="31"/>
-      <c r="BA48" s="31"/>
-      <c r="BB48" s="31"/>
-      <c r="BC48" s="31"/>
+      <c r="AD48" s="17"/>
+      <c r="AE48" s="9"/>
+      <c r="AF48" s="9"/>
+      <c r="AG48" s="9"/>
+      <c r="AH48" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI48" s="17"/>
+      <c r="AJ48" s="9"/>
+      <c r="AK48" s="9"/>
+      <c r="AL48" s="9"/>
+      <c r="AM48" s="15">
+        <v>48</v>
+      </c>
+      <c r="AN48" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO48" s="9"/>
+      <c r="AP48" s="9"/>
+      <c r="AQ48" s="9"/>
+      <c r="AR48" s="9"/>
+      <c r="AS48" s="9"/>
+      <c r="AT48" s="9"/>
+      <c r="AU48" s="9"/>
+      <c r="AV48" s="9"/>
+      <c r="AW48" s="9"/>
+      <c r="AX48" s="9"/>
+      <c r="AY48" s="9"/>
+      <c r="AZ48" s="9"/>
+      <c r="BA48" s="9"/>
+      <c r="BB48" s="9"/>
+      <c r="BC48" s="9"/>
     </row>
     <row r="49" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="22" t="s">
-        <v>111</v>
+      <c r="A49" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="B49" s="20">
         <v>47</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>154</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D49" s="18"/>
       <c r="E49" s="18" t="s">
         <v>113</v>
       </c>
@@ -5680,16 +5683,24 @@
         <v>21</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="I49" s="18"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
+        <v>128</v>
+      </c>
+      <c r="I49" s="17"/>
+      <c r="J49" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="K49" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="L49" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M49" s="18" t="s">
+        <v>131</v>
+      </c>
       <c r="N49" s="17"/>
       <c r="O49" s="17"/>
       <c r="P49" s="17"/>
@@ -5700,37 +5711,43 @@
       <c r="U49" s="17"/>
       <c r="V49" s="17"/>
       <c r="W49" s="17"/>
-      <c r="X49" s="15">
-        <v>48</v>
-      </c>
-      <c r="Y49" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z49" s="15" t="s">
+      <c r="Y49" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z49" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AA49" s="15" t="s">
+      <c r="AA49" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB49" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC49" s="9">
+        <v>62</v>
+      </c>
+      <c r="AD49" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE49" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF49" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AB49" s="17"/>
-      <c r="AC49" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD49" s="17"/>
-      <c r="AE49" s="9"/>
-      <c r="AF49" s="9"/>
       <c r="AG49" s="9"/>
       <c r="AH49" s="9" t="s">
         <v>205</v>
       </c>
       <c r="AI49" s="17"/>
       <c r="AJ49" s="9"/>
+      <c r="AK49" s="9"/>
       <c r="AL49" s="9"/>
       <c r="AM49" s="15">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AN49" s="18" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="AO49" s="9"/>
       <c r="AP49" s="9"/>
@@ -5756,11 +5773,9 @@
         <v>48</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>159</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="D50" s="17"/>
       <c r="E50" s="18" t="s">
         <v>113</v>
       </c>
@@ -5768,22 +5783,22 @@
         <v>21</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="H50" s="17"/>
+        <v>178</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>168</v>
+      </c>
       <c r="I50" s="17"/>
       <c r="J50" s="18" t="s">
         <v>85</v>
       </c>
       <c r="K50" s="18" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L50" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="M50" s="18" t="s">
-        <v>163</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M50" s="17"/>
       <c r="N50" s="17"/>
       <c r="O50" s="17"/>
       <c r="P50" s="17"/>
@@ -5795,49 +5810,37 @@
       <c r="V50" s="17"/>
       <c r="W50" s="17"/>
       <c r="X50" s="15">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Y50" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z50" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z50" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AA50" s="24" t="s">
+      <c r="AA50" s="15" t="s">
         <v>38</v>
       </c>
       <c r="AB50" s="17"/>
-      <c r="AC50" s="15">
-        <v>51</v>
-      </c>
-      <c r="AD50" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE50" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF50" s="24" t="s">
-        <v>31</v>
-      </c>
+      <c r="AC50" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD50" s="17"/>
+      <c r="AE50" s="9"/>
+      <c r="AF50" s="9"/>
       <c r="AG50" s="9"/>
-      <c r="AH50" s="15">
-        <v>53</v>
-      </c>
-      <c r="AI50" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="AJ50" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK50" s="24" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH50" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI50" s="17"/>
+      <c r="AJ50" s="9"/>
+      <c r="AK50" s="9"/>
       <c r="AL50" s="9"/>
       <c r="AM50" s="15">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AN50" s="18" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="AO50" s="9"/>
       <c r="AP50" s="9"/>
@@ -5856,15 +5859,16 @@
       <c r="BC50" s="9"/>
     </row>
     <row r="51" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="22" t="s">
-        <v>111</v>
+      <c r="A51" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="B51" s="20">
         <v>49</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>164</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="D51" s="18"/>
       <c r="E51" s="18" t="s">
         <v>113</v>
       </c>
@@ -5872,59 +5876,58 @@
         <v>21</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
+      <c r="J51" s="31" t="s">
+        <v>212</v>
+      </c>
       <c r="K51" s="18" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="L51" s="18" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="M51" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="N51" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="O51" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="P51" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q51" s="18" t="s">
-        <v>175</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
       <c r="R51" s="17"/>
       <c r="S51" s="17"/>
       <c r="T51" s="17"/>
       <c r="U51" s="17"/>
       <c r="V51" s="17"/>
       <c r="W51" s="17"/>
-      <c r="X51" s="15">
-        <v>50</v>
-      </c>
-      <c r="Y51" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z51" s="15" t="s">
+      <c r="Y51" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z51" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AA51" s="15" t="s">
+      <c r="AA51" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AB51" s="17"/>
-      <c r="AC51" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD51" s="17"/>
-      <c r="AE51" s="9"/>
-      <c r="AF51" s="9"/>
+      <c r="AB51" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC51" s="15">
+        <v>63</v>
+      </c>
+      <c r="AD51" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE51" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF51" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="AG51" s="9"/>
       <c r="AH51" s="9" t="s">
         <v>205</v>
@@ -5934,10 +5937,10 @@
       <c r="AK51" s="9"/>
       <c r="AL51" s="9"/>
       <c r="AM51" s="15">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AN51" s="18" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="AO51" s="9"/>
       <c r="AP51" s="9"/>
@@ -5956,16 +5959,16 @@
       <c r="BC51" s="9"/>
     </row>
     <row r="52" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="23" t="s">
-        <v>126</v>
+      <c r="A52" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="B52" s="20">
         <v>50</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D52" s="18"/>
+        <v>166</v>
+      </c>
+      <c r="D52" s="17"/>
       <c r="E52" s="18" t="s">
         <v>113</v>
       </c>
@@ -5973,24 +5976,14 @@
         <v>21</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H52" s="18" t="s">
-        <v>128</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="H52" s="17"/>
       <c r="I52" s="17"/>
-      <c r="J52" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="K52" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="L52" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="M52" s="18" t="s">
-        <v>131</v>
-      </c>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
       <c r="N52" s="17"/>
       <c r="O52" s="17"/>
       <c r="P52" s="17"/>
@@ -6001,30 +5994,25 @@
       <c r="U52" s="17"/>
       <c r="V52" s="17"/>
       <c r="W52" s="17"/>
-      <c r="Y52" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z52" s="24" t="s">
+      <c r="X52" s="15">
+        <v>54</v>
+      </c>
+      <c r="Y52" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z52" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AA52" s="24" t="s">
+      <c r="AA52" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AB52" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC52" s="9">
-        <v>62</v>
-      </c>
-      <c r="AD52" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE52" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF52" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="AB52" s="17"/>
+      <c r="AC52" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD52" s="17"/>
+      <c r="AE52" s="9"/>
+      <c r="AF52" s="9"/>
       <c r="AG52" s="9"/>
       <c r="AH52" s="9" t="s">
         <v>205</v>
@@ -6034,10 +6022,10 @@
       <c r="AK52" s="9"/>
       <c r="AL52" s="9"/>
       <c r="AM52" s="15">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AN52" s="18" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="AO52" s="9"/>
       <c r="AP52" s="9"/>
@@ -6056,16 +6044,16 @@
       <c r="BC52" s="9"/>
     </row>
     <row r="53" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="22" t="s">
-        <v>111</v>
+      <c r="A53" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="B53" s="20">
         <v>51</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="D53" s="17"/>
+        <v>166</v>
+      </c>
+      <c r="D53" s="18"/>
       <c r="E53" s="18" t="s">
         <v>113</v>
       </c>
@@ -6073,22 +6061,24 @@
         <v>21</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="I53" s="17"/>
-      <c r="J53" s="18" t="s">
-        <v>85</v>
+      <c r="J53" s="31" t="s">
+        <v>212</v>
       </c>
       <c r="K53" s="18" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="L53" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="M53" s="17"/>
+        <v>130</v>
+      </c>
+      <c r="M53" s="18" t="s">
+        <v>131</v>
+      </c>
       <c r="N53" s="17"/>
       <c r="O53" s="17"/>
       <c r="P53" s="17"/>
@@ -6099,25 +6089,30 @@
       <c r="U53" s="17"/>
       <c r="V53" s="17"/>
       <c r="W53" s="17"/>
-      <c r="X53" s="15">
-        <v>52</v>
-      </c>
-      <c r="Y53" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z53" s="15" t="s">
+      <c r="Y53" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z53" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AA53" s="15" t="s">
+      <c r="AA53" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AB53" s="17"/>
-      <c r="AC53" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD53" s="17"/>
-      <c r="AE53" s="9"/>
-      <c r="AF53" s="9"/>
+      <c r="AB53" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC53" s="15">
+        <v>64</v>
+      </c>
+      <c r="AD53" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE53" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF53" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="AG53" s="9"/>
       <c r="AH53" s="9" t="s">
         <v>205</v>
@@ -6127,10 +6122,10 @@
       <c r="AK53" s="9"/>
       <c r="AL53" s="9"/>
       <c r="AM53" s="15">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AN53" s="18" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="AO53" s="9"/>
       <c r="AP53" s="9"/>
@@ -6149,16 +6144,18 @@
       <c r="BC53" s="9"/>
     </row>
     <row r="54" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23" t="s">
-        <v>126</v>
+      <c r="A54" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="B54" s="20">
         <v>52</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="D54" s="18"/>
+        <v>184</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>185</v>
+      </c>
       <c r="E54" s="18" t="s">
         <v>113</v>
       </c>
@@ -6166,24 +6163,18 @@
         <v>21</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="I54" s="17"/>
-      <c r="J54" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="K54" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="L54" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="M54" s="18" t="s">
-        <v>131</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
       <c r="N54" s="17"/>
       <c r="O54" s="17"/>
       <c r="P54" s="17"/>
@@ -6194,30 +6185,25 @@
       <c r="U54" s="17"/>
       <c r="V54" s="17"/>
       <c r="W54" s="17"/>
-      <c r="Y54" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z54" s="24" t="s">
+      <c r="X54" s="15">
+        <v>56</v>
+      </c>
+      <c r="Y54" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z54" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AA54" s="24" t="s">
+      <c r="AA54" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AB54" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC54" s="15">
-        <v>63</v>
-      </c>
-      <c r="AD54" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE54" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF54" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="AB54" s="17"/>
+      <c r="AC54" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD54" s="17"/>
+      <c r="AE54" s="9"/>
+      <c r="AF54" s="9"/>
       <c r="AG54" s="9"/>
       <c r="AH54" s="9" t="s">
         <v>205</v>
@@ -6227,10 +6213,10 @@
       <c r="AK54" s="9"/>
       <c r="AL54" s="9"/>
       <c r="AM54" s="15">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AN54" s="18" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="AO54" s="9"/>
       <c r="AP54" s="9"/>
@@ -6249,16 +6235,18 @@
       <c r="BC54" s="9"/>
     </row>
     <row r="55" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="22" t="s">
-        <v>111</v>
+      <c r="A55" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="B55" s="20">
         <v>53</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D55" s="17"/>
+        <v>184</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>185</v>
+      </c>
       <c r="E55" s="18" t="s">
         <v>113</v>
       </c>
@@ -6266,14 +6254,24 @@
         <v>21</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="H55" s="17"/>
+        <v>127</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>128</v>
+      </c>
       <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
+      <c r="J55" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="K55" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="L55" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M55" s="18" t="s">
+        <v>131</v>
+      </c>
       <c r="N55" s="17"/>
       <c r="O55" s="17"/>
       <c r="P55" s="17"/>
@@ -6284,25 +6282,30 @@
       <c r="U55" s="17"/>
       <c r="V55" s="17"/>
       <c r="W55" s="17"/>
-      <c r="X55" s="15">
-        <v>54</v>
-      </c>
-      <c r="Y55" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z55" s="15" t="s">
+      <c r="Y55" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z55" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AA55" s="15" t="s">
+      <c r="AA55" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AB55" s="17"/>
-      <c r="AC55" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD55" s="17"/>
-      <c r="AE55" s="9"/>
-      <c r="AF55" s="9"/>
+      <c r="AB55" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC55" s="15">
+        <v>65</v>
+      </c>
+      <c r="AD55" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE55" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF55" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="AG55" s="9"/>
       <c r="AH55" s="9" t="s">
         <v>205</v>
@@ -6312,10 +6315,10 @@
       <c r="AK55" s="9"/>
       <c r="AL55" s="9"/>
       <c r="AM55" s="15">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AN55" s="18" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="AO55" s="9"/>
       <c r="AP55" s="9"/>
@@ -6334,16 +6337,18 @@
       <c r="BC55" s="9"/>
     </row>
     <row r="56" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="23" t="s">
-        <v>126</v>
+      <c r="A56" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="B56" s="20">
         <v>54</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D56" s="18"/>
+        <v>190</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>191</v>
+      </c>
       <c r="E56" s="18" t="s">
         <v>113</v>
       </c>
@@ -6351,24 +6356,18 @@
         <v>21</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="I56" s="17"/>
-      <c r="J56" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="K56" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="L56" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="M56" s="18" t="s">
-        <v>131</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="I56" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
       <c r="N56" s="17"/>
       <c r="O56" s="17"/>
       <c r="P56" s="17"/>
@@ -6379,30 +6378,25 @@
       <c r="U56" s="17"/>
       <c r="V56" s="17"/>
       <c r="W56" s="17"/>
-      <c r="Y56" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z56" s="24" t="s">
+      <c r="X56" s="15">
+        <v>58</v>
+      </c>
+      <c r="Y56" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z56" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AA56" s="24" t="s">
+      <c r="AA56" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AB56" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC56" s="15">
-        <v>64</v>
-      </c>
-      <c r="AD56" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE56" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF56" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="AB56" s="17"/>
+      <c r="AC56" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD56" s="17"/>
+      <c r="AE56" s="9"/>
+      <c r="AF56" s="9"/>
       <c r="AG56" s="9"/>
       <c r="AH56" s="9" t="s">
         <v>205</v>
@@ -6412,10 +6406,10 @@
       <c r="AK56" s="9"/>
       <c r="AL56" s="9"/>
       <c r="AM56" s="15">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AN56" s="18" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="AO56" s="9"/>
       <c r="AP56" s="9"/>
@@ -6434,17 +6428,17 @@
       <c r="BC56" s="9"/>
     </row>
     <row r="57" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="22" t="s">
-        <v>111</v>
+      <c r="A57" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="B57" s="20">
         <v>55</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E57" s="18" t="s">
         <v>113</v>
@@ -6453,18 +6447,24 @@
         <v>21</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="I57" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
+        <v>128</v>
+      </c>
+      <c r="I57" s="17"/>
+      <c r="J57" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="K57" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="L57" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M57" s="18" t="s">
+        <v>131</v>
+      </c>
       <c r="N57" s="17"/>
       <c r="O57" s="17"/>
       <c r="P57" s="17"/>
@@ -6475,25 +6475,30 @@
       <c r="U57" s="17"/>
       <c r="V57" s="17"/>
       <c r="W57" s="17"/>
-      <c r="X57" s="15">
-        <v>56</v>
-      </c>
-      <c r="Y57" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z57" s="15" t="s">
+      <c r="Y57" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z57" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AA57" s="15" t="s">
+      <c r="AA57" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AB57" s="17"/>
-      <c r="AC57" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD57" s="17"/>
-      <c r="AE57" s="9"/>
-      <c r="AF57" s="9"/>
+      <c r="AB57" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC57" s="15">
+        <v>66</v>
+      </c>
+      <c r="AD57" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE57" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF57" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="AG57" s="9"/>
       <c r="AH57" s="9" t="s">
         <v>205</v>
@@ -6503,10 +6508,10 @@
       <c r="AK57" s="9"/>
       <c r="AL57" s="9"/>
       <c r="AM57" s="15">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AN57" s="18" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="AO57" s="9"/>
       <c r="AP57" s="9"/>
@@ -6525,17 +6530,17 @@
       <c r="BC57" s="9"/>
     </row>
     <row r="58" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="23" t="s">
-        <v>126</v>
+      <c r="A58" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="B58" s="20">
         <v>56</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="E58" s="18" t="s">
         <v>113</v>
@@ -6544,24 +6549,18 @@
         <v>21</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="I58" s="17"/>
-      <c r="J58" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="K58" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="L58" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="M58" s="18" t="s">
-        <v>131</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="I58" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
       <c r="N58" s="17"/>
       <c r="O58" s="17"/>
       <c r="P58" s="17"/>
@@ -6572,29 +6571,30 @@
       <c r="U58" s="17"/>
       <c r="V58" s="17"/>
       <c r="W58" s="17"/>
-      <c r="Y58" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z58" s="24" t="s">
+      <c r="X58" s="15">
+        <v>38</v>
+      </c>
+      <c r="Y58" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z58" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AA58" s="24" t="s">
+      <c r="AA58" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AB58" s="18" t="s">
-        <v>211</v>
-      </c>
+      <c r="AB58" s="17"/>
       <c r="AC58" s="15">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AD58" s="18" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="AE58" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AF58" s="15" t="s">
-        <v>31</v>
+      <c r="AF58" s="30" t="s">
+        <v>39</v>
       </c>
       <c r="AG58" s="9"/>
       <c r="AH58" s="9" t="s">
@@ -6604,12 +6604,10 @@
       <c r="AJ58" s="9"/>
       <c r="AK58" s="9"/>
       <c r="AL58" s="9"/>
-      <c r="AM58" s="15">
-        <v>36</v>
-      </c>
-      <c r="AN58" s="18" t="s">
-        <v>133</v>
-      </c>
+      <c r="AM58" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN58" s="18"/>
       <c r="AO58" s="9"/>
       <c r="AP58" s="9"/>
       <c r="AQ58" s="9"/>
@@ -6634,10 +6632,10 @@
         <v>57</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="E59" s="18" t="s">
         <v>113</v>
@@ -6646,14 +6644,12 @@
         <v>21</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="I59" s="18" t="s">
-        <v>188</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="I59" s="18"/>
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
       <c r="L59" s="17"/>
@@ -6669,10 +6665,10 @@
       <c r="V59" s="17"/>
       <c r="W59" s="17"/>
       <c r="X59" s="15">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="Y59" s="18" t="s">
-        <v>194</v>
+        <v>125</v>
       </c>
       <c r="Z59" s="15" t="s">
         <v>22</v>
@@ -6681,12 +6677,18 @@
         <v>38</v>
       </c>
       <c r="AB59" s="17"/>
-      <c r="AC59" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD59" s="17"/>
-      <c r="AE59" s="9"/>
-      <c r="AF59" s="9"/>
+      <c r="AC59" s="15">
+        <v>40</v>
+      </c>
+      <c r="AD59" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE59" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF59" s="30" t="s">
+        <v>39</v>
+      </c>
       <c r="AG59" s="9"/>
       <c r="AH59" s="9" t="s">
         <v>205</v>
@@ -6695,12 +6697,10 @@
       <c r="AJ59" s="9"/>
       <c r="AK59" s="9"/>
       <c r="AL59" s="9"/>
-      <c r="AM59" s="15">
-        <v>46</v>
-      </c>
-      <c r="AN59" s="18" t="s">
-        <v>158</v>
-      </c>
+      <c r="AM59" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN59" s="18"/>
       <c r="AO59" s="9"/>
       <c r="AP59" s="9"/>
       <c r="AQ59" s="9"/>
@@ -6725,10 +6725,10 @@
         <v>58</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="E60" s="18" t="s">
         <v>113</v>
@@ -6743,7 +6743,7 @@
         <v>128</v>
       </c>
       <c r="I60" s="17"/>
-      <c r="J60" s="34" t="s">
+      <c r="J60" s="31" t="s">
         <v>212</v>
       </c>
       <c r="K60" s="18" t="s">
@@ -6775,10 +6775,10 @@
         <v>38</v>
       </c>
       <c r="AB60" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AC60" s="15">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="AD60" s="18" t="s">
         <v>132</v>

--- a/make_lrt_json/LAT-content_Mod1_2.xlsx
+++ b/make_lrt_json/LAT-content_Mod1_2.xlsx
@@ -12,7 +12,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhIwUicRHpe0KH/hWSmbzs+MKcc1A=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh46xA/fYtj2w7OQxZhGjsBr/FACw=="/>
     </ext>
   </extLst>
 </workbook>
@@ -36,14 +36,14 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mi4Vrzqv+BC2waSgxyfWpPWpTJ7ZQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjcJeFeJERty9rPwAWVu1bB+ruaow=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="227">
   <si>
     <t>paragraphs</t>
   </si>
@@ -111,7 +111,7 @@
     <t>start</t>
   </si>
   <si>
-    <t xml:space="preserve">Are you eligible for an FSA loan?
+    <t xml:space="preserve">Are you eligible for a FSA loan?
 </t>
   </si>
   <si>
@@ -121,10 +121,10 @@
     <t>informational</t>
   </si>
   <si>
-    <t xml:space="preserve">The first step is to determine if you qualify for an FSA Farm Loan. </t>
+    <t xml:space="preserve">The first step is to determine if you qualify for a FSA Farm Loan. </t>
   </si>
   <si>
-    <t>Our short questionnaire will help you learn whether you meet the basic eligibility qualifications for our loans.</t>
+    <t>Our short questionnaire will help you learn whether you meet the basic eligibility criteria for FSA loans.</t>
   </si>
   <si>
     <t>Click the button below to determine your eligibility.</t>
@@ -136,7 +136,7 @@
     <t>Watch the short video above. Then, click the button below to see if you are eligible.</t>
   </si>
   <si>
-    <t>Start Your Self Assessment</t>
+    <t>Start Your Eligibility Self-Assessment</t>
   </si>
   <si>
     <t>white</t>
@@ -176,7 +176,7 @@
     <t>#4472c4</t>
   </si>
   <si>
-    <t>Start Over</t>
+    <t>Go Back</t>
   </si>
   <si>
     <t>What Does This Mean?</t>
@@ -202,13 +202,7 @@
     <t>Based on your response to this question, you may not be eligible for FSA loans.</t>
   </si>
   <si>
-    <t>If you believe that you have special circumstances that might allow for an exception, contact your local FSA office for instructions.</t>
-  </si>
-  <si>
-    <t>Find your local Farm Loan Manager</t>
-  </si>
-  <si>
-    <t>https://offices.sc.egov.usda.gov/locator/app?state=us&amp;agency=fsa</t>
+    <t>Acknowledge &amp; Continue</t>
   </si>
   <si>
     <t>Legal Competency</t>
@@ -240,29 +234,7 @@
   </si>
   <si>
     <t xml:space="preserve">Qualified aliens who are lawfully admitted for permanent residence under the Immigration and Nationality Act will be eligible. Additional information will be needed to document qualified alien status.
-Qualified aliens are defined as follows:
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">An alien who has been granted asylum. </t>
-  </si>
-  <si>
-    <t>A refugee who has been admitted to the United States.</t>
-  </si>
-  <si>
-    <t>An alien who has been paroled into the United States period of at least 1 year.</t>
-  </si>
-  <si>
-    <t>An alien whose deportation is being withheld.</t>
-  </si>
-  <si>
-    <t>An alien who has been granted conditional entry as in effect before April 1, 1980.</t>
-  </si>
-  <si>
-    <t>An alien who is a Cuban/Haitian Entrant.</t>
-  </si>
-  <si>
-    <t>An alien who has been battered or subjected to extreme cruelty.</t>
   </si>
   <si>
     <t>You indicated that you may not meet the citizenship requirement.</t>
@@ -373,6 +345,25 @@
     <t>The applicant must demonstrate sufficient managerial ability to assure reasonable prospects of loan repayment, as determined by FSA.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Farming experience requirements vary by loan type.</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">You indicated that you may lack sufficient farm management experience.
 </t>
   </si>
@@ -397,7 +388,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Non-Profit Organizations (NPO) are not eligible to receive FSA loan assistance.
+    <t xml:space="preserve">Non-Profit Organizations (NPOs) are not eligible to receive FSA loan assistance.
 </t>
   </si>
   <si>
@@ -407,7 +398,7 @@
     <t>Self-Assessment Completed</t>
   </si>
   <si>
-    <t xml:space="preserve">Based on your responses to the self assessment you may meet the basic eligibility requirements to proceed. Click the button below to discover which FSA loans are right for you.
+    <t xml:space="preserve">You have completed the eligibility self-assessment. Click the button below to discover which FSA loans are right for you.
 </t>
   </si>
   <si>
@@ -426,7 +417,7 @@
     <t>Loan Discovery</t>
   </si>
   <si>
-    <t xml:space="preserve">FSA offers various loan programs including Youth Loans, Emergency Loans, Microloans, Farm Ownership Loans, and Operating Loans. While FSA is committed to serving all farmers and ranchers, by statute, FSA targets a portion of all Guaranteed loan funds, Microloan funding, and Youth loans, to historically underserved farmers and ranchers.
+    <t xml:space="preserve">FSA offers various loan programs including Microloans, Farm Ownership Loans, Operating Loans. Emergency Loans, and Youth Loans. While FSA is committed to serving all farmers and ranchers, by statute, FSA targets a portion of all Guaranteed loan funds, Microloan funding, and Youth loans, to historically underserved farmers and ranchers.
 </t>
   </si>
   <si>
@@ -437,28 +428,29 @@
     <t xml:space="preserve">Click the button below to discover the loans that align with your circumstances. </t>
   </si>
   <si>
-    <t>Discover Our Loans</t>
+    <t>Discover FSA Loans</t>
   </si>
   <si>
-    <t>Emergency Loans</t>
+    <t>Microloans</t>
   </si>
   <si>
-    <t xml:space="preserve">Associated with a Natural Disaster of Emergency Declaration
+    <t>Loans up to $50,000</t>
+  </si>
+  <si>
+    <t>Are you seeking a loan amount less than or equal to $50,000?</t>
+  </si>
+  <si>
+    <t>The focus of Microloans is financing the needs of small, beginning farmers, niche and non-traditional farm operations, such as truck farms, farms participating in direct marketing and sales such as farmers’ markets, CSA’s (Community Supported Agriculture), restaurants, and grocery stores, or those using hydroponic, aquaponic, organic and vertical growing methods.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is no minimum loan amount. You may request up to $50,000 for a Farm Ownership Microloan and up to an additional $50,000 for an Operating Microloan. The $50,000 limit includes any possible outstanding FSA Direct Operating or Farm Ownership unpaid principal loan balances. A loan applicant may have a Guaranteed Operating Loan, Farm Ownership loan or Emergency Loan and still qualify for a Microloan.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Are you seeking an Emergency Loan for a loss associated with a natural disaster or emergency declaration?
-</t>
+    <t xml:space="preserve">Need More Capital? Consider a Farm Ownership or Operating Loan. </t>
   </si>
   <si>
-    <t>The Emergency Loan Program is triggered when a natural disaster is designated by the Secretary of Agriculture, or a natural disaster or emergency is declared by the President under the Stafford Act. These loans help producers who suffer qualifying farm related losses directly caused by the disaster in a county declared or designated as a primary disaster or quarantine area. Also, farmers located in counties that are contiguous to the declared, designated, or quarantined area may qualify for Emergency loans.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For production losses, a 30% reduction in a primary crop in a designated or contiguous county is required. Losses to quality, such as receiving a 30% reduced price for flood damaged crops, may be eligible for assistance, too.
-</t>
-  </si>
-  <si>
-    <t>Proceed with an Emergency Loan</t>
+    <t>Proceed with a Microloan</t>
   </si>
   <si>
     <t>Discover Additional Loan Options</t>
@@ -476,7 +468,7 @@
     <t>numbered</t>
   </si>
   <si>
-    <t>Download and print out the Readiness Checklist for the Youth Loan Program.</t>
+    <t>Download and print out the Readiness Checklist for the Microloan Program.</t>
   </si>
   <si>
     <t>Gather the necessary loan application forms and documentation from the checklist.</t>
@@ -488,35 +480,10 @@
     <t>Download the Readiness Checklist</t>
   </si>
   <si>
-    <t>/checklists/Emergency%20Loan%20Readiness%20Checklist.pdf</t>
+    <t>/checklists/Microloan%20Readiness%20Checklist.pdf</t>
   </si>
   <si>
     <t>Obtain Assistance with Loan Forms</t>
-  </si>
-  <si>
-    <t>Microloans</t>
-  </si>
-  <si>
-    <t>Loans up to $50,000</t>
-  </si>
-  <si>
-    <t>Are you seeking a loan amount less than or equal to $50,000?</t>
-  </si>
-  <si>
-    <t>The focus of Microloans is on the financing needs of small, beginning farmer, niche and non-traditional farm operations, such as truck farms, farms participating in direct marketing and sales such as farmers’ markets, CSA’s (Community Supported Agriculture), restaurants, and grocery stores, or those using hydroponic, aquaponic, organic and vertical growing methods.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There is no minimum loan amount. You may request up to $50,000 for a Farm Ownership Microloan and up to an additional $50,000 for an Operating Microloan. The $50,000 limit includes any possible outstanding FSA Direct Operating or Farm Ownership unpaid principal loan balances. A loan applicant may have a Guaranteed Operating Loan, Farm Ownership loan or Emergency Loan and still qualify for a Microloan.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need More Capital? Consider a Farm Ownership or Operating Loan. </t>
-  </si>
-  <si>
-    <t>Proceed with a Microloan</t>
-  </si>
-  <si>
-    <t>/checklists/Microloan%20Readiness%20Checklist.pdf</t>
   </si>
   <si>
     <t>Direct Loans</t>
@@ -525,19 +492,13 @@
     <t>For Farm Ownership and Operating Expenses</t>
   </si>
   <si>
-    <t>What is the purpose of the loan you are seeking?</t>
+    <t xml:space="preserve">FSA offers Direct Loans that can be used to purchase, enlarge, or improve a farm, as well as loans to cover farm operating expenses. </t>
   </si>
   <si>
     <t>Explore Farm Ownership Loans</t>
   </si>
   <si>
-    <t>Explore Term Operating Loans</t>
-  </si>
-  <si>
-    <t>Expore Annual Operating Loans</t>
-  </si>
-  <si>
-    <t>#065941</t>
+    <t>Explore Operating Loans</t>
   </si>
   <si>
     <t>Farm Ownership Loans</t>
@@ -556,7 +517,7 @@
     <t>Learn About Farm Ownership Loans</t>
   </si>
   <si>
-    <t>Discover Other Direct Loans</t>
+    <t>Explore Other Direct Loans</t>
   </si>
   <si>
     <t>To Purchase or Enlarge Family Farms</t>
@@ -571,16 +532,22 @@
     <t>Joint Financing/Participation Loans – No down payment required, but at least 50% of the purchase price must be financed by a commercial lender or contract for deed holder.</t>
   </si>
   <si>
-    <t>Direct Farm Ownership Loans – No down payment required; FSA can finance up to 100% of the appraised value up to the loan limit.</t>
+    <t>Direct Farm Ownership Loans – No down payment required; FSA can finance up to 100% of the purchase price or the appraised value, whichever is lower.</t>
+  </si>
+  <si>
+    <t>Explore Down Payment Loans</t>
+  </si>
+  <si>
+    <t>Explore Joint Financing/ Participation Loans</t>
+  </si>
+  <si>
+    <t>Explore Direct Farm Ownership Loans</t>
+  </si>
+  <si>
+    <t>#065941</t>
   </si>
   <si>
     <t>Down Payment Loans</t>
-  </si>
-  <si>
-    <t>Joint Financing/Participation Loans</t>
-  </si>
-  <si>
-    <t>Direct Farm Ownership Loans</t>
   </si>
   <si>
     <t>Down Payment Loans assist socially disadvantaged, military veterans, and beginning farmers in purchasing a farm.</t>
@@ -618,10 +585,16 @@
     <t>Proceed with a Down Payment Loan</t>
   </si>
   <si>
-    <t>Discover Other Farm Ownership Loans</t>
+    <t>Explore Other Farm Ownership Loans</t>
+  </si>
+  <si>
+    <t>Download and print out the Readiness Checklist for the Down Payment Loan Program.</t>
   </si>
   <si>
     <t>/checklists/Farm%20Ownership%20Loan%20Readiness%20Checklist.pdf</t>
+  </si>
+  <si>
+    <t>Joint Financing/Participation Loans</t>
   </si>
   <si>
     <t xml:space="preserve">Joint Financing/Participation Loans may be used to purchase a farm, enlarge an existing farm, construct new farm buildings and/or improve structures, pay closing costs, and promote soil and water conservation and protection.
@@ -638,11 +611,38 @@
     <t>Proceed with a Joint Financing Loan</t>
   </si>
   <si>
+    <t>Download and print out the Readiness Checklist for the Joint Financing Program.</t>
+  </si>
+  <si>
+    <t>Direct Farm Ownership Loans</t>
+  </si>
+  <si>
     <t xml:space="preserve">Direct Farm Ownership Loans offer up to 100 percent financing and are a valuable resource to help farmers and ranchers purchase or enlarge family farms, improve and expand current operations, increase agricultural productivity, and assist with land tenure to save farmland for future generations. It has a maximum loan amount of $600,000.
 </t>
   </si>
   <si>
     <t>Proceed with a Direct Farm Ownership Loan</t>
+  </si>
+  <si>
+    <t>Download and print out the Readiness Checklist for the Direct Farm Ownership Loan Program.</t>
+  </si>
+  <si>
+    <t>Operating Loans</t>
+  </si>
+  <si>
+    <t>Loan Options for Financing Operating Expenses</t>
+  </si>
+  <si>
+    <t>Farm Operating Loans may be used for normal operating expenses, machinery and equipment, minor real estate repairs or improvements, and refinancing debt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating Loan options include terminal loans of up to seven years and annual operating loans that are generally repaid within 12 months. </t>
+  </si>
+  <si>
+    <t>Explore Term Operating Loans</t>
+  </si>
+  <si>
+    <t>Explore Annual Operating Loans</t>
   </si>
   <si>
     <t>Term Operating Loans</t>
@@ -655,7 +655,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">FSA will guarantee farm operating loans through a commercial leader up to $1,776,000. The repayment term may vary, but it cannot exceed seven years.
+    <t xml:space="preserve">FSA will guarantee farm operating loans through a commercial leader up to $2,037,000. The repayment term may vary, but it cannot exceed seven years.
 </t>
   </si>
   <si>
@@ -663,6 +663,12 @@
   </si>
   <si>
     <t>Proceed with a Term Operating Loan</t>
+  </si>
+  <si>
+    <t>Discover Other Operating Loans</t>
+  </si>
+  <si>
+    <t>Download and print out the Readiness Checklist for the Term Operating Loan Program.</t>
   </si>
   <si>
     <t>/checklists/Annual%20and%20Term%20Operating%20Loan%20Readiness%20Checklist.pdf</t>
@@ -674,7 +680,7 @@
     <t>For Annual Production Expenses</t>
   </si>
   <si>
-    <t xml:space="preserve">Farm Operating Loans may be used for normal operating expenses, machinery and equipment, minor real estate repairs or improvements, and refinancing debt. The direct loans are available up to a maximum of $400,000. FSA will guarantee farm operating loans through a commercial leader up to $1,776,000.
+    <t xml:space="preserve">Farm Operating Loans may be used for normal operating expenses, machinery and equipment, minor real estate repairs or improvements, and refinancing debt. The direct loans are available up to a maximum of $400,000. FSA will guarantee farm operating loans through a commercial leader up to $2,037,000.
 </t>
   </si>
   <si>
@@ -683,6 +689,36 @@
   </si>
   <si>
     <t>Proceed with an Annual Operating Loan</t>
+  </si>
+  <si>
+    <t>Download and print out the Readiness Checklist for the Annual Operating Loan Program.</t>
+  </si>
+  <si>
+    <t>Emergency Loans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associated with a Natural Disaster of Emergency Declaration
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you seeking an Emergency Loan for a loss associated with a natural disaster or emergency declaration?
+</t>
+  </si>
+  <si>
+    <t>The Emergency Loan Program is triggered when a natural disaster is designated by the Secretary of Agriculture, or a natural disaster or emergency is declared by the President under the Stafford Act. These loans help producers who suffer qualifying farm related losses directly caused by the disaster in a county declared or designated as a primary disaster or quarantine area. Also, farmers located in counties that are contiguous to the declared, designated, or quarantined area may qualify for Emergency loans.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For production losses, a 30% reduction in a primary crop in a designated or contiguous county is required. Losses to quality, such as receiving a 30% reduced price for flood-damaged crops, may be eligible for assistance, too.
+</t>
+  </si>
+  <si>
+    <t>Proceed with an Emergency Loan</t>
+  </si>
+  <si>
+    <t>Download and print out the Readiness Checklist for the Emergency Loan Program.</t>
+  </si>
+  <si>
+    <t>/checklists/Emergency%20Loan%20Readiness%20Checklist.pdf</t>
   </si>
   <si>
     <t>Youth Loans</t>
@@ -728,6 +764,12 @@
     <t>Proceed with a Youth Loan</t>
   </si>
   <si>
+    <t>Discover Other Loan Options</t>
+  </si>
+  <si>
+    <t>Download and print out the Readiness Checklist for the Youth Loan Program.</t>
+  </si>
+  <si>
     <t>/checklists/Youth%20Loan%20Readiness%20Checklist.pdf</t>
   </si>
   <si>
@@ -743,7 +785,16 @@
     <t xml:space="preserve">NOTE: This system does not store your data. You will need to print out your loan application forms and submit your completed application to your local FSA office. </t>
   </si>
   <si>
+    <t>Access Instructions for Completing the Loan Forms</t>
+  </si>
+  <si>
     <t>/walkthrough.html?show_forms=FSA-2301,AD-1026</t>
+  </si>
+  <si>
+    <t>Find your local Farm Loan Manager</t>
+  </si>
+  <si>
+    <t>https://offices.sc.egov.usda.gov/locator/app?state=us&amp;agency=fsa</t>
   </si>
   <si>
     <t>/walkthrough.html?show_forms=FSA-2001,FSA-2002,FSA-2003,FSA-2004,FSA-2005,FSA-2006,FSA-2007,FSA-2014,FSA-2015,FSA-2037,FSA-2038,FSA-2302,FSA-2309,FSA-2310,FSA-2370,AD-1026,</t>
@@ -762,7 +813,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -795,7 +846,10 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
     <font>
       <u/>
@@ -1121,15 +1175,10 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -1140,6 +1189,9 @@
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1153,9 +1205,6 @@
     </xf>
     <xf borderId="7" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -1194,14 +1243,17 @@
     <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
@@ -1443,15 +1495,12 @@
     <col customWidth="1" min="8" max="8" width="29.71"/>
     <col customWidth="1" min="9" max="9" width="29.43"/>
     <col customWidth="1" min="10" max="10" width="9.0"/>
-    <col customWidth="1" min="11" max="11" width="14.43"/>
     <col customWidth="1" min="12" max="12" width="16.14"/>
     <col customWidth="1" min="13" max="13" width="14.57"/>
     <col customWidth="1" min="14" max="14" width="13.43"/>
     <col customWidth="1" min="15" max="15" width="13.14"/>
     <col customWidth="1" min="16" max="16" width="14.57"/>
-    <col customWidth="1" min="17" max="17" width="14.43"/>
     <col customWidth="1" min="18" max="18" width="14.0"/>
-    <col customWidth="1" min="19" max="19" width="14.43"/>
     <col customWidth="1" min="20" max="20" width="14.14"/>
     <col customWidth="1" min="21" max="21" width="13.86"/>
     <col customWidth="1" min="22" max="22" width="22.14"/>
@@ -1977,9 +2026,7 @@
       <c r="H6" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="21" t="s">
-        <v>51</v>
-      </c>
+      <c r="I6" s="21"/>
       <c r="J6" s="22"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
@@ -1994,11 +2041,11 @@
       <c r="U6" s="21"/>
       <c r="V6" s="22"/>
       <c r="W6" s="21"/>
-      <c r="X6" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y6" s="29" t="s">
-        <v>52</v>
+      <c r="X6" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="Y6" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="Z6" s="20" t="s">
         <v>31</v>
@@ -2006,9 +2053,7 @@
       <c r="AA6" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AB6" s="30" t="s">
-        <v>53</v>
-      </c>
+      <c r="AB6" s="21"/>
       <c r="AC6" s="22" t="s">
         <v>33</v>
       </c>
@@ -2024,7 +2069,7 @@
       <c r="AK6" s="20"/>
       <c r="AL6" s="21"/>
       <c r="AM6" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AN6" s="20" t="s">
         <v>43</v>
@@ -2053,7 +2098,7 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20" t="s">
@@ -2063,7 +2108,7 @@
         <v>24</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="21"/>
@@ -2121,7 +2166,7 @@
       </c>
       <c r="AL7" s="21"/>
       <c r="AM7" s="22">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AN7" s="20" t="s">
         <v>43</v>
@@ -2149,11 +2194,11 @@
       <c r="B8" s="20">
         <v>6.0</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>54</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>56</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>23</v>
@@ -2162,7 +2207,7 @@
         <v>24</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="21"/>
@@ -2234,10 +2279,10 @@
       <c r="B9" s="20">
         <v>7.0</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="31" t="s">
+      <c r="C9" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="20" t="s">
@@ -2247,14 +2292,12 @@
         <v>24</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="21" t="s">
-        <v>51</v>
-      </c>
+      <c r="I9" s="21"/>
       <c r="J9" s="22"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
@@ -2269,11 +2312,11 @@
       <c r="U9" s="21"/>
       <c r="V9" s="22"/>
       <c r="W9" s="21"/>
-      <c r="X9" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y9" s="29" t="s">
-        <v>52</v>
+      <c r="X9" s="22">
+        <v>8.0</v>
+      </c>
+      <c r="Y9" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="Z9" s="20" t="s">
         <v>31</v>
@@ -2281,9 +2324,7 @@
       <c r="AA9" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AB9" s="30" t="s">
-        <v>53</v>
-      </c>
+      <c r="AB9" s="21"/>
       <c r="AC9" s="22" t="s">
         <v>33</v>
       </c>
@@ -2299,7 +2340,7 @@
       <c r="AK9" s="20"/>
       <c r="AL9" s="21"/>
       <c r="AM9" s="22">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="AN9" s="20" t="s">
         <v>43</v>
@@ -2328,7 +2369,7 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20" t="s">
@@ -2338,12 +2379,12 @@
         <v>24</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="21"/>
       <c r="J10" s="22"/>
-      <c r="K10" s="32"/>
+      <c r="K10" s="31"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
@@ -2396,7 +2437,7 @@
       </c>
       <c r="AL10" s="21"/>
       <c r="AM10" s="22">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="AN10" s="20" t="s">
         <v>43</v>
@@ -2425,7 +2466,7 @@
         <v>9.0</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>44</v>
@@ -2436,35 +2477,20 @@
       <c r="F11" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>62</v>
+      <c r="G11" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>60</v>
       </c>
       <c r="J11" s="23"/>
-      <c r="K11" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="N11" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="O11" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="P11" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q11" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
@@ -2526,7 +2552,7 @@
         <v>10.0</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>48</v>
@@ -2538,16 +2564,14 @@
         <v>24</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H12" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="21" t="s">
-        <v>51</v>
-      </c>
+      <c r="I12" s="21"/>
       <c r="J12" s="22"/>
-      <c r="K12" s="35"/>
+      <c r="K12" s="34"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
@@ -2560,11 +2584,11 @@
       <c r="U12" s="21"/>
       <c r="V12" s="22"/>
       <c r="W12" s="21"/>
-      <c r="X12" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y12" s="29" t="s">
-        <v>52</v>
+      <c r="X12" s="22">
+        <v>11.0</v>
+      </c>
+      <c r="Y12" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="Z12" s="20" t="s">
         <v>31</v>
@@ -2572,9 +2596,7 @@
       <c r="AA12" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AB12" s="30" t="s">
-        <v>53</v>
-      </c>
+      <c r="AB12" s="35"/>
       <c r="AC12" s="22" t="s">
         <v>33</v>
       </c>
@@ -2590,7 +2612,7 @@
       <c r="AK12" s="20"/>
       <c r="AL12" s="21"/>
       <c r="AM12" s="22">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="AN12" s="20" t="s">
         <v>43</v>
@@ -2619,7 +2641,7 @@
         <v>11.0</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20" t="s">
@@ -2629,7 +2651,7 @@
         <v>24</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="21"/>
@@ -2687,7 +2709,7 @@
       </c>
       <c r="AL13" s="21"/>
       <c r="AM13" s="22">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="AN13" s="20" t="s">
         <v>43</v>
@@ -2716,7 +2738,7 @@
         <v>12.0</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>44</v>
@@ -2728,7 +2750,7 @@
         <v>24</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="21"/>
@@ -2801,7 +2823,7 @@
         <v>13.0</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>48</v>
@@ -2813,14 +2835,12 @@
         <v>24</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H15" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="21" t="s">
-        <v>51</v>
-      </c>
+      <c r="I15" s="21"/>
       <c r="J15" s="22"/>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
@@ -2835,11 +2855,11 @@
       <c r="U15" s="21"/>
       <c r="V15" s="22"/>
       <c r="W15" s="21"/>
-      <c r="X15" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y15" s="29" t="s">
-        <v>52</v>
+      <c r="X15" s="22">
+        <v>14.0</v>
+      </c>
+      <c r="Y15" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="Z15" s="20" t="s">
         <v>31</v>
@@ -2847,9 +2867,7 @@
       <c r="AA15" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AB15" s="30" t="s">
-        <v>53</v>
-      </c>
+      <c r="AB15" s="21"/>
       <c r="AC15" s="22" t="s">
         <v>33</v>
       </c>
@@ -2865,7 +2883,7 @@
       <c r="AK15" s="20"/>
       <c r="AL15" s="21"/>
       <c r="AM15" s="22">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="AN15" s="20" t="s">
         <v>43</v>
@@ -2894,7 +2912,7 @@
         <v>14.0</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20" t="s">
@@ -2904,7 +2922,7 @@
         <v>24</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="21"/>
@@ -2962,7 +2980,7 @@
       </c>
       <c r="AL16" s="21"/>
       <c r="AM16" s="22">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="AN16" s="20" t="s">
         <v>43</v>
@@ -2991,7 +3009,7 @@
         <v>15.0</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>44</v>
@@ -3003,7 +3021,7 @@
         <v>24</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="21"/>
@@ -3076,7 +3094,7 @@
         <v>16.0</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>48</v>
@@ -3088,14 +3106,12 @@
         <v>24</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H18" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="21" t="s">
-        <v>51</v>
-      </c>
+      <c r="I18" s="21"/>
       <c r="J18" s="22"/>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
@@ -3110,11 +3126,11 @@
       <c r="U18" s="21"/>
       <c r="V18" s="22"/>
       <c r="W18" s="21"/>
-      <c r="X18" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y18" s="29" t="s">
-        <v>52</v>
+      <c r="X18" s="22">
+        <v>17.0</v>
+      </c>
+      <c r="Y18" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="Z18" s="20" t="s">
         <v>31</v>
@@ -3122,9 +3138,7 @@
       <c r="AA18" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AB18" s="30" t="s">
-        <v>53</v>
-      </c>
+      <c r="AB18" s="21"/>
       <c r="AC18" s="22" t="s">
         <v>33</v>
       </c>
@@ -3140,7 +3154,7 @@
       <c r="AK18" s="20"/>
       <c r="AL18" s="21"/>
       <c r="AM18" s="22">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="AN18" s="20" t="s">
         <v>43</v>
@@ -3169,7 +3183,7 @@
         <v>17.0</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20" t="s">
@@ -3179,7 +3193,7 @@
         <v>24</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="21"/>
@@ -3237,7 +3251,7 @@
       </c>
       <c r="AL19" s="21"/>
       <c r="AM19" s="22">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="AN19" s="20" t="s">
         <v>43</v>
@@ -3266,7 +3280,7 @@
         <v>18.0</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>44</v>
@@ -3278,13 +3292,13 @@
         <v>24</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J20" s="22"/>
       <c r="K20" s="20"/>
@@ -3355,7 +3369,7 @@
         <v>19.0</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>48</v>
@@ -3367,14 +3381,12 @@
         <v>24</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H21" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="21" t="s">
-        <v>51</v>
-      </c>
+      <c r="I21" s="21"/>
       <c r="J21" s="22"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
@@ -3389,11 +3401,11 @@
       <c r="U21" s="21"/>
       <c r="V21" s="22"/>
       <c r="W21" s="21"/>
-      <c r="X21" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y21" s="29" t="s">
-        <v>52</v>
+      <c r="X21" s="22">
+        <v>20.0</v>
+      </c>
+      <c r="Y21" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="Z21" s="20" t="s">
         <v>31</v>
@@ -3401,9 +3413,7 @@
       <c r="AA21" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AB21" s="30" t="s">
-        <v>53</v>
-      </c>
+      <c r="AB21" s="21"/>
       <c r="AC21" s="22" t="s">
         <v>33</v>
       </c>
@@ -3419,7 +3429,7 @@
       <c r="AK21" s="20"/>
       <c r="AL21" s="21"/>
       <c r="AM21" s="22">
-        <v>1.0</v>
+        <v>17.0</v>
       </c>
       <c r="AN21" s="20" t="s">
         <v>43</v>
@@ -3448,7 +3458,7 @@
         <v>20.0</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20" t="s">
@@ -3458,7 +3468,7 @@
         <v>24</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H22" s="20"/>
       <c r="I22" s="21"/>
@@ -3516,7 +3526,7 @@
       </c>
       <c r="AL22" s="21"/>
       <c r="AM22" s="22">
-        <v>1.0</v>
+        <v>17.0</v>
       </c>
       <c r="AN22" s="20" t="s">
         <v>43</v>
@@ -3545,7 +3555,7 @@
         <v>21.0</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>44</v>
@@ -3557,24 +3567,24 @@
         <v>24</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H23" s="20"/>
       <c r="I23" s="21"/>
       <c r="J23" s="22" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="M23" s="20" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="N23" s="20" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="O23" s="20"/>
       <c r="P23" s="20"/>
@@ -3640,7 +3650,7 @@
         <v>22.0</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>48</v>
@@ -3652,14 +3662,12 @@
         <v>24</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H24" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="21" t="s">
-        <v>51</v>
-      </c>
+      <c r="I24" s="21"/>
       <c r="J24" s="22"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
@@ -3674,11 +3682,11 @@
       <c r="U24" s="21"/>
       <c r="V24" s="22"/>
       <c r="W24" s="21"/>
-      <c r="X24" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y24" s="29" t="s">
-        <v>52</v>
+      <c r="X24" s="22">
+        <v>23.0</v>
+      </c>
+      <c r="Y24" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="Z24" s="20" t="s">
         <v>31</v>
@@ -3686,9 +3694,7 @@
       <c r="AA24" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AB24" s="30" t="s">
-        <v>53</v>
-      </c>
+      <c r="AB24" s="21"/>
       <c r="AC24" s="22" t="s">
         <v>33</v>
       </c>
@@ -3704,7 +3710,7 @@
       <c r="AK24" s="20"/>
       <c r="AL24" s="21"/>
       <c r="AM24" s="22">
-        <v>1.0</v>
+        <v>20.0</v>
       </c>
       <c r="AN24" s="20" t="s">
         <v>43</v>
@@ -3733,7 +3739,7 @@
         <v>23.0</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20" t="s">
@@ -3743,7 +3749,7 @@
         <v>24</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H25" s="20"/>
       <c r="I25" s="21"/>
@@ -3801,7 +3807,7 @@
       </c>
       <c r="AL25" s="21"/>
       <c r="AM25" s="22">
-        <v>1.0</v>
+        <v>20.0</v>
       </c>
       <c r="AN25" s="20" t="s">
         <v>43</v>
@@ -3830,7 +3836,7 @@
         <v>24.0</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>44</v>
@@ -3842,7 +3848,7 @@
         <v>24</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H26" s="20"/>
       <c r="I26" s="21"/>
@@ -3915,7 +3921,7 @@
         <v>25.0</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>48</v>
@@ -3927,14 +3933,12 @@
         <v>24</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I27" s="21" t="s">
-        <v>51</v>
-      </c>
+      <c r="I27" s="21"/>
       <c r="J27" s="22"/>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
@@ -3949,11 +3953,11 @@
       <c r="U27" s="21"/>
       <c r="V27" s="22"/>
       <c r="W27" s="21"/>
-      <c r="X27" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y27" s="29" t="s">
-        <v>52</v>
+      <c r="X27" s="22">
+        <v>26.0</v>
+      </c>
+      <c r="Y27" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="Z27" s="20" t="s">
         <v>31</v>
@@ -3961,9 +3965,7 @@
       <c r="AA27" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AB27" s="30" t="s">
-        <v>53</v>
-      </c>
+      <c r="AB27" s="21"/>
       <c r="AC27" s="22" t="s">
         <v>33</v>
       </c>
@@ -3979,7 +3981,7 @@
       <c r="AK27" s="20"/>
       <c r="AL27" s="21"/>
       <c r="AM27" s="22">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="AN27" s="20" t="s">
         <v>43</v>
@@ -4008,7 +4010,7 @@
         <v>26.0</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20" t="s">
@@ -4018,7 +4020,7 @@
         <v>24</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H28" s="20"/>
       <c r="I28" s="21"/>
@@ -4076,7 +4078,7 @@
       </c>
       <c r="AL28" s="21"/>
       <c r="AM28" s="22">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="AN28" s="20" t="s">
         <v>43</v>
@@ -4105,7 +4107,7 @@
         <v>27.0</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>44</v>
@@ -4117,9 +4119,11 @@
         <v>24</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="H29" s="20"/>
+        <v>91</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="I29" s="21"/>
       <c r="J29" s="22"/>
       <c r="K29" s="20"/>
@@ -4190,7 +4194,7 @@
         <v>28.0</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>48</v>
@@ -4202,14 +4206,12 @@
         <v>24</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H30" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I30" s="21" t="s">
-        <v>51</v>
-      </c>
+      <c r="I30" s="21"/>
       <c r="J30" s="22"/>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
@@ -4224,11 +4226,11 @@
       <c r="U30" s="21"/>
       <c r="V30" s="22"/>
       <c r="W30" s="21"/>
-      <c r="X30" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y30" s="29" t="s">
-        <v>52</v>
+      <c r="X30" s="22">
+        <v>29.0</v>
+      </c>
+      <c r="Y30" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="Z30" s="20" t="s">
         <v>31</v>
@@ -4236,9 +4238,7 @@
       <c r="AA30" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AB30" s="30" t="s">
-        <v>53</v>
-      </c>
+      <c r="AB30" s="21"/>
       <c r="AC30" s="22" t="s">
         <v>33</v>
       </c>
@@ -4254,7 +4254,7 @@
       <c r="AK30" s="20"/>
       <c r="AL30" s="21"/>
       <c r="AM30" s="22">
-        <v>1.0</v>
+        <v>26.0</v>
       </c>
       <c r="AN30" s="20" t="s">
         <v>43</v>
@@ -4283,7 +4283,7 @@
         <v>29.0</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="20" t="s">
@@ -4293,7 +4293,7 @@
         <v>24</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H31" s="20"/>
       <c r="I31" s="21"/>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="AL31" s="21"/>
       <c r="AM31" s="22">
-        <v>1.0</v>
+        <v>26.0</v>
       </c>
       <c r="AN31" s="20" t="s">
         <v>43</v>
@@ -4380,7 +4380,7 @@
         <v>30.0</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>44</v>
@@ -4392,7 +4392,7 @@
         <v>24</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H32" s="20"/>
       <c r="I32" s="21"/>
@@ -4465,7 +4465,7 @@
         <v>31.0</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>48</v>
@@ -4477,14 +4477,12 @@
         <v>24</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H33" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I33" s="21" t="s">
-        <v>51</v>
-      </c>
+      <c r="I33" s="21"/>
       <c r="J33" s="22"/>
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
@@ -4499,11 +4497,11 @@
       <c r="U33" s="21"/>
       <c r="V33" s="22"/>
       <c r="W33" s="21"/>
-      <c r="X33" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y33" s="29" t="s">
-        <v>52</v>
+      <c r="X33" s="22">
+        <v>32.0</v>
+      </c>
+      <c r="Y33" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="Z33" s="20" t="s">
         <v>31</v>
@@ -4511,9 +4509,7 @@
       <c r="AA33" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AB33" s="30" t="s">
-        <v>53</v>
-      </c>
+      <c r="AB33" s="21"/>
       <c r="AC33" s="22" t="s">
         <v>33</v>
       </c>
@@ -4529,7 +4525,7 @@
       <c r="AK33" s="20"/>
       <c r="AL33" s="21"/>
       <c r="AM33" s="22">
-        <v>1.0</v>
+        <v>29.0</v>
       </c>
       <c r="AN33" s="20" t="s">
         <v>43</v>
@@ -4558,7 +4554,7 @@
         <v>32.0</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D34" s="20"/>
       <c r="E34" s="20" t="s">
@@ -4568,7 +4564,7 @@
         <v>24</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H34" s="20"/>
       <c r="I34" s="21"/>
@@ -4626,7 +4622,7 @@
       </c>
       <c r="AL34" s="21"/>
       <c r="AM34" s="22">
-        <v>1.0</v>
+        <v>29.0</v>
       </c>
       <c r="AN34" s="20" t="s">
         <v>43</v>
@@ -4655,7 +4651,7 @@
         <v>33.0</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>44</v>
@@ -4667,7 +4663,7 @@
         <v>24</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="H35" s="36"/>
       <c r="I35" s="37"/>
@@ -4740,7 +4736,7 @@
         <v>34.0</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D36" s="20" t="s">
         <v>48</v>
@@ -4752,14 +4748,12 @@
         <v>24</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H36" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I36" s="21" t="s">
-        <v>51</v>
-      </c>
+      <c r="I36" s="21"/>
       <c r="J36" s="38"/>
       <c r="K36" s="36"/>
       <c r="L36" s="36"/>
@@ -4774,11 +4768,11 @@
       <c r="U36" s="37"/>
       <c r="V36" s="38"/>
       <c r="W36" s="37"/>
-      <c r="X36" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y36" s="29" t="s">
-        <v>52</v>
+      <c r="X36" s="22">
+        <v>35.0</v>
+      </c>
+      <c r="Y36" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="Z36" s="20" t="s">
         <v>31</v>
@@ -4786,9 +4780,7 @@
       <c r="AA36" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AB36" s="30" t="s">
-        <v>53</v>
-      </c>
+      <c r="AB36" s="21"/>
       <c r="AC36" s="22" t="s">
         <v>33</v>
       </c>
@@ -4804,7 +4796,7 @@
       <c r="AK36" s="20"/>
       <c r="AL36" s="21"/>
       <c r="AM36" s="22">
-        <v>1.0</v>
+        <v>32.0</v>
       </c>
       <c r="AN36" s="20" t="s">
         <v>43</v>
@@ -4829,195 +4821,195 @@
       <c r="A37" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="32">
+      <c r="B37" s="31">
         <v>35.0</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="H37" s="31"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="44"/>
+      <c r="V37" s="42"/>
+      <c r="W37" s="44"/>
+      <c r="X37" s="41">
+        <v>36.0</v>
+      </c>
+      <c r="Y37" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z37" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA37" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB37" s="40"/>
+      <c r="AC37" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD37" s="31"/>
+      <c r="AE37" s="31"/>
+      <c r="AF37" s="31"/>
+      <c r="AG37" s="40"/>
+      <c r="AH37" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI37" s="31"/>
+      <c r="AJ37" s="31"/>
+      <c r="AK37" s="31"/>
+      <c r="AL37" s="40"/>
+      <c r="AM37" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="AN37" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO37" s="46"/>
+      <c r="AP37" s="46"/>
+      <c r="AQ37" s="46"/>
+      <c r="AR37" s="46"/>
+      <c r="AS37" s="46"/>
+      <c r="AT37" s="46"/>
+      <c r="AU37" s="46"/>
+      <c r="AV37" s="46"/>
+      <c r="AW37" s="46"/>
+      <c r="AX37" s="46"/>
+      <c r="AY37" s="46"/>
+      <c r="AZ37" s="46"/>
+      <c r="BA37" s="46"/>
+      <c r="BB37" s="46"/>
+      <c r="BC37" s="46"/>
+    </row>
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="A38" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="48">
+        <v>36.0</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="48"/>
+      <c r="F38" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="H38" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" s="42" t="s">
+      <c r="I38" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="H37" s="32"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="44"/>
-      <c r="S37" s="44"/>
-      <c r="T37" s="44"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="43"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="42">
-        <v>36.0</v>
-      </c>
-      <c r="Y37" s="32" t="s">
+      <c r="J38" s="50"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="49"/>
+      <c r="V38" s="50"/>
+      <c r="W38" s="49"/>
+      <c r="X38" s="50">
+        <v>37.0</v>
+      </c>
+      <c r="Y38" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="Z37" s="32" t="s">
+      <c r="Z38" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="AA37" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB37" s="41"/>
-      <c r="AC37" s="42" t="s">
+      <c r="AA38" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB38" s="49"/>
+      <c r="AC38" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="AD37" s="32"/>
-      <c r="AE37" s="32"/>
-      <c r="AF37" s="32"/>
-      <c r="AG37" s="41"/>
-      <c r="AH37" s="42" t="s">
+      <c r="AD38" s="48"/>
+      <c r="AE38" s="48"/>
+      <c r="AF38" s="48"/>
+      <c r="AG38" s="49"/>
+      <c r="AH38" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="AI37" s="32"/>
-      <c r="AJ37" s="32"/>
-      <c r="AK37" s="32"/>
-      <c r="AL37" s="41"/>
-      <c r="AM37" s="42">
-        <v>1.0</v>
-      </c>
-      <c r="AN37" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO37" s="47"/>
-      <c r="AP37" s="47"/>
-      <c r="AQ37" s="47"/>
-      <c r="AR37" s="47"/>
-      <c r="AS37" s="47"/>
-      <c r="AT37" s="47"/>
-      <c r="AU37" s="47"/>
-      <c r="AV37" s="47"/>
-      <c r="AW37" s="47"/>
-      <c r="AX37" s="47"/>
-      <c r="AY37" s="47"/>
-      <c r="AZ37" s="47"/>
-      <c r="BA37" s="47"/>
-      <c r="BB37" s="47"/>
-      <c r="BC37" s="47"/>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" s="49">
-        <v>36.0</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="49"/>
-      <c r="F38" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="H38" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="I38" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="J38" s="51"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="49"/>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="49"/>
-      <c r="R38" s="49"/>
-      <c r="S38" s="49"/>
-      <c r="T38" s="49"/>
-      <c r="U38" s="50"/>
-      <c r="V38" s="51"/>
-      <c r="W38" s="50"/>
-      <c r="X38" s="51">
-        <v>37.0</v>
-      </c>
-      <c r="Y38" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z38" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA38" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB38" s="50"/>
-      <c r="AC38" s="51" t="s">
+      <c r="AI38" s="48"/>
+      <c r="AJ38" s="48"/>
+      <c r="AK38" s="48"/>
+      <c r="AL38" s="49"/>
+      <c r="AM38" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="AD38" s="49"/>
-      <c r="AE38" s="49"/>
-      <c r="AF38" s="49"/>
-      <c r="AG38" s="50"/>
-      <c r="AH38" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI38" s="49"/>
-      <c r="AJ38" s="49"/>
-      <c r="AK38" s="49"/>
-      <c r="AL38" s="50"/>
-      <c r="AM38" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN38" s="49"/>
-      <c r="AO38" s="52"/>
-      <c r="AP38" s="52"/>
-      <c r="AQ38" s="52"/>
-      <c r="AR38" s="52"/>
-      <c r="AS38" s="52"/>
-      <c r="AT38" s="52"/>
-      <c r="AU38" s="52"/>
-      <c r="AV38" s="52"/>
-      <c r="AW38" s="52"/>
-      <c r="AX38" s="52"/>
-      <c r="AY38" s="52"/>
-      <c r="AZ38" s="52"/>
-      <c r="BA38" s="52"/>
-      <c r="BB38" s="52"/>
-      <c r="BC38" s="52"/>
+      <c r="AN38" s="48"/>
+      <c r="AO38" s="51"/>
+      <c r="AP38" s="51"/>
+      <c r="AQ38" s="51"/>
+      <c r="AR38" s="51"/>
+      <c r="AS38" s="51"/>
+      <c r="AT38" s="51"/>
+      <c r="AU38" s="51"/>
+      <c r="AV38" s="51"/>
+      <c r="AW38" s="51"/>
+      <c r="AX38" s="51"/>
+      <c r="AY38" s="51"/>
+      <c r="AZ38" s="51"/>
+      <c r="BA38" s="51"/>
+      <c r="BB38" s="51"/>
+      <c r="BC38" s="51"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="53" t="s">
-        <v>114</v>
+      <c r="A39" s="52" t="s">
+        <v>106</v>
       </c>
       <c r="B39" s="20">
         <v>37.0</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F39" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H39" s="20"/>
       <c r="I39" s="21"/>
@@ -5035,7 +5027,7 @@
       <c r="U39" s="21"/>
       <c r="V39" s="22"/>
       <c r="W39" s="21"/>
-      <c r="X39" s="54">
+      <c r="X39" s="22">
         <v>38.0</v>
       </c>
       <c r="Y39" s="20" t="s">
@@ -5048,7 +5040,7 @@
         <v>40</v>
       </c>
       <c r="AB39" s="21"/>
-      <c r="AC39" s="54">
+      <c r="AC39" s="22">
         <v>40.0</v>
       </c>
       <c r="AD39" s="20" t="s">
@@ -5089,31 +5081,33 @@
       <c r="BC39" s="25"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="53" t="s">
-        <v>114</v>
+      <c r="A40" s="52" t="s">
+        <v>106</v>
       </c>
       <c r="B40" s="20">
         <v>38.0</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F40" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="I40" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>118</v>
+      </c>
       <c r="J40" s="22"/>
       <c r="K40" s="20"/>
       <c r="L40" s="20"/>
@@ -5128,11 +5122,11 @@
       <c r="U40" s="21"/>
       <c r="V40" s="22"/>
       <c r="W40" s="21"/>
-      <c r="X40" s="54">
+      <c r="X40" s="22">
         <v>39.0</v>
       </c>
       <c r="Y40" s="20" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="Z40" s="20" t="s">
         <v>31</v>
@@ -5141,11 +5135,11 @@
         <v>40</v>
       </c>
       <c r="AB40" s="21"/>
-      <c r="AC40" s="54">
+      <c r="AC40" s="22">
         <v>40.0</v>
       </c>
-      <c r="AD40" s="29" t="s">
-        <v>127</v>
+      <c r="AD40" s="20" t="s">
+        <v>120</v>
       </c>
       <c r="AE40" s="20" t="s">
         <v>31</v>
@@ -5182,42 +5176,42 @@
       <c r="BC40" s="25"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="55" t="s">
-        <v>128</v>
+      <c r="A41" s="53" t="s">
+        <v>121</v>
       </c>
       <c r="B41" s="20">
         <v>39.0</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F41" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I41" s="21"/>
-      <c r="J41" s="56" t="s">
-        <v>131</v>
+      <c r="J41" s="54" t="s">
+        <v>124</v>
       </c>
       <c r="K41" s="20" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L41" s="20" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="M41" s="20" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="N41" s="20"/>
       <c r="O41" s="20"/>
@@ -5231,7 +5225,7 @@
       <c r="W41" s="21"/>
       <c r="X41" s="38"/>
       <c r="Y41" s="36" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="Z41" s="20" t="s">
         <v>31</v>
@@ -5240,13 +5234,13 @@
         <v>40</v>
       </c>
       <c r="AB41" s="21" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="AC41" s="22">
-        <v>60.0</v>
+        <v>62.0</v>
       </c>
       <c r="AD41" s="20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="AE41" s="20" t="s">
         <v>31</v>
@@ -5263,10 +5257,10 @@
       <c r="AK41" s="20"/>
       <c r="AL41" s="21"/>
       <c r="AM41" s="22">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
       <c r="AN41" s="20" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="AO41" s="25"/>
       <c r="AP41" s="25"/>
@@ -5285,26 +5279,26 @@
       <c r="BC41" s="25"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="53" t="s">
-        <v>114</v>
+      <c r="A42" s="52" t="s">
+        <v>106</v>
       </c>
       <c r="B42" s="20">
         <v>40.0</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F42" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H42" s="20"/>
       <c r="I42" s="21"/>
@@ -5322,11 +5316,11 @@
       <c r="U42" s="21"/>
       <c r="V42" s="22"/>
       <c r="W42" s="21"/>
-      <c r="X42" s="54">
+      <c r="X42" s="22">
         <v>41.0</v>
       </c>
       <c r="Y42" s="20" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="Z42" s="20" t="s">
         <v>31</v>
@@ -5335,30 +5329,30 @@
         <v>40</v>
       </c>
       <c r="AB42" s="21"/>
-      <c r="AC42" s="54">
-        <v>43.0</v>
+      <c r="AC42" s="22">
+        <v>49.0</v>
       </c>
       <c r="AD42" s="20" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="AE42" s="20" t="s">
         <v>31</v>
       </c>
       <c r="AF42" s="20" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AG42" s="21"/>
-      <c r="AH42" s="22" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH42" s="22"/>
       <c r="AI42" s="20"/>
       <c r="AJ42" s="20"/>
       <c r="AK42" s="20"/>
       <c r="AL42" s="21"/>
-      <c r="AM42" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN42" s="20"/>
+      <c r="AM42" s="22">
+        <v>54.0</v>
+      </c>
+      <c r="AN42" s="20" t="s">
+        <v>120</v>
+      </c>
       <c r="AO42" s="25"/>
       <c r="AP42" s="25"/>
       <c r="AQ42" s="25"/>
@@ -5376,33 +5370,31 @@
       <c r="BC42" s="25"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="53" t="s">
-        <v>114</v>
+      <c r="A43" s="52" t="s">
+        <v>106</v>
       </c>
       <c r="B43" s="20">
         <v>41.0</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F43" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="I43" s="21" t="s">
-        <v>143</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="I43" s="21"/>
       <c r="J43" s="22"/>
       <c r="K43" s="20"/>
       <c r="L43" s="20"/>
@@ -5417,43 +5409,39 @@
       <c r="U43" s="21"/>
       <c r="V43" s="22"/>
       <c r="W43" s="21"/>
-      <c r="X43" s="54">
+      <c r="X43" s="22">
         <v>42.0</v>
       </c>
       <c r="Y43" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Z43" s="20" t="s">
         <v>31</v>
       </c>
       <c r="AA43" s="20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AB43" s="21"/>
-      <c r="AC43" s="54">
-        <v>43.0</v>
-      </c>
-      <c r="AD43" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE43" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF43" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="AC43" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD43" s="20"/>
+      <c r="AE43" s="20"/>
+      <c r="AF43" s="20"/>
       <c r="AG43" s="21"/>
       <c r="AH43" s="22" t="s">
         <v>33</v>
       </c>
       <c r="AI43" s="20"/>
       <c r="AJ43" s="20"/>
-      <c r="AK43" s="20"/>
+      <c r="AK43" s="36"/>
       <c r="AL43" s="21"/>
-      <c r="AM43" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN43" s="20"/>
+      <c r="AM43" s="22">
+        <v>49.0</v>
+      </c>
+      <c r="AN43" s="20" t="s">
+        <v>141</v>
+      </c>
       <c r="AO43" s="25"/>
       <c r="AP43" s="25"/>
       <c r="AQ43" s="25"/>
@@ -5471,42 +5459,40 @@
       <c r="BC43" s="25"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="55" t="s">
-        <v>128</v>
+      <c r="A44" s="52" t="s">
+        <v>106</v>
       </c>
       <c r="B44" s="20">
         <v>42.0</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F44" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H44" s="20" t="s">
-        <v>130</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H44" s="20"/>
       <c r="I44" s="21"/>
-      <c r="J44" s="56" t="s">
-        <v>131</v>
+      <c r="J44" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="K44" s="20" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="L44" s="20" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="M44" s="20" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="N44" s="20"/>
       <c r="O44" s="20"/>
@@ -5518,9 +5504,11 @@
       <c r="U44" s="21"/>
       <c r="V44" s="22"/>
       <c r="W44" s="21"/>
-      <c r="X44" s="38"/>
-      <c r="Y44" s="36" t="s">
-        <v>135</v>
+      <c r="X44" s="22">
+        <v>43.0</v>
+      </c>
+      <c r="Y44" s="20" t="s">
+        <v>147</v>
       </c>
       <c r="Z44" s="20" t="s">
         <v>31</v>
@@ -5528,14 +5516,12 @@
       <c r="AA44" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AB44" s="21" t="s">
-        <v>145</v>
-      </c>
+      <c r="AB44" s="21"/>
       <c r="AC44" s="22">
-        <v>61.0</v>
+        <v>45.0</v>
       </c>
       <c r="AD44" s="20" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="AE44" s="20" t="s">
         <v>31</v>
@@ -5544,18 +5530,24 @@
         <v>32</v>
       </c>
       <c r="AG44" s="21"/>
-      <c r="AH44" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI44" s="20"/>
-      <c r="AJ44" s="20"/>
-      <c r="AK44" s="20"/>
+      <c r="AH44" s="22">
+        <v>47.0</v>
+      </c>
+      <c r="AI44" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ44" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK44" s="20" t="s">
+        <v>150</v>
+      </c>
       <c r="AL44" s="21"/>
       <c r="AM44" s="22">
-        <v>36.0</v>
+        <v>49.0</v>
       </c>
       <c r="AN44" s="20" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AO44" s="25"/>
       <c r="AP44" s="25"/>
@@ -5574,48 +5566,62 @@
       <c r="BC44" s="25"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="53" t="s">
-        <v>114</v>
+      <c r="A45" s="52" t="s">
+        <v>106</v>
       </c>
       <c r="B45" s="20">
         <v>43.0</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>147</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D45" s="36"/>
       <c r="E45" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F45" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="H45" s="20"/>
+        <v>152</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>153</v>
+      </c>
       <c r="I45" s="21"/>
       <c r="J45" s="22"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
+      <c r="K45" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="L45" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="M45" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="N45" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="O45" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="P45" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q45" s="20" t="s">
+        <v>160</v>
+      </c>
       <c r="R45" s="20"/>
       <c r="S45" s="20"/>
       <c r="T45" s="20"/>
       <c r="U45" s="21"/>
       <c r="V45" s="22"/>
       <c r="W45" s="21"/>
-      <c r="X45" s="54">
+      <c r="X45" s="22">
         <v>44.0</v>
       </c>
       <c r="Y45" s="20" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="Z45" s="20" t="s">
         <v>31</v>
@@ -5624,37 +5630,25 @@
         <v>40</v>
       </c>
       <c r="AB45" s="21"/>
-      <c r="AC45" s="54">
-        <v>52.0</v>
-      </c>
-      <c r="AD45" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE45" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF45" s="20" t="s">
-        <v>32</v>
-      </c>
+      <c r="AC45" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD45" s="20"/>
+      <c r="AE45" s="20"/>
+      <c r="AF45" s="20"/>
       <c r="AG45" s="21"/>
-      <c r="AH45" s="54">
-        <v>54.0</v>
-      </c>
-      <c r="AI45" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ45" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK45" s="20" t="s">
-        <v>152</v>
-      </c>
+      <c r="AH45" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI45" s="20"/>
+      <c r="AJ45" s="20"/>
+      <c r="AK45" s="20"/>
       <c r="AL45" s="21"/>
-      <c r="AM45" s="54">
-        <v>56.0</v>
-      </c>
-      <c r="AN45" s="29" t="s">
-        <v>127</v>
+      <c r="AM45" s="22">
+        <v>42.0</v>
+      </c>
+      <c r="AN45" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="AO45" s="25"/>
       <c r="AP45" s="25"/>
@@ -5674,34 +5668,40 @@
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="53" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B46" s="20">
         <v>44.0</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>154</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D46" s="20"/>
       <c r="E46" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F46" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="I46" s="21"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
+      <c r="J46" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="K46" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="L46" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="M46" s="20" t="s">
+        <v>127</v>
+      </c>
       <c r="N46" s="20"/>
       <c r="O46" s="20"/>
       <c r="P46" s="20"/>
@@ -5712,38 +5712,44 @@
       <c r="U46" s="21"/>
       <c r="V46" s="22"/>
       <c r="W46" s="21"/>
-      <c r="X46" s="54">
-        <v>45.0</v>
-      </c>
-      <c r="Y46" s="20" t="s">
-        <v>157</v>
+      <c r="X46" s="38"/>
+      <c r="Y46" s="36" t="s">
+        <v>128</v>
       </c>
       <c r="Z46" s="20" t="s">
         <v>31</v>
       </c>
       <c r="AA46" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB46" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC46" s="22">
+        <v>63.0</v>
+      </c>
+      <c r="AD46" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE46" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF46" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="AB46" s="21"/>
-      <c r="AC46" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD46" s="20"/>
-      <c r="AE46" s="20"/>
-      <c r="AF46" s="20"/>
       <c r="AG46" s="21"/>
       <c r="AH46" s="22" t="s">
         <v>33</v>
       </c>
       <c r="AI46" s="20"/>
       <c r="AJ46" s="20"/>
-      <c r="AK46" s="36"/>
+      <c r="AK46" s="20"/>
       <c r="AL46" s="21"/>
-      <c r="AM46" s="54">
-        <v>43.0</v>
+      <c r="AM46" s="22">
+        <v>40.0</v>
       </c>
       <c r="AN46" s="20" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="AO46" s="25"/>
       <c r="AP46" s="25"/>
@@ -5762,41 +5768,39 @@
       <c r="BC46" s="25"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="53" t="s">
-        <v>114</v>
+      <c r="A47" s="52" t="s">
+        <v>106</v>
       </c>
       <c r="B47" s="20">
         <v>45.0</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>159</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="D47" s="20"/>
       <c r="E47" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F47" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="H47" s="20"/>
+        <v>166</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>153</v>
+      </c>
       <c r="I47" s="21"/>
       <c r="J47" s="22" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K47" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="L47" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="M47" s="20" t="s">
-        <v>163</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="L47" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M47" s="20"/>
       <c r="N47" s="20"/>
       <c r="O47" s="20"/>
       <c r="P47" s="20"/>
@@ -5807,11 +5811,11 @@
       <c r="U47" s="21"/>
       <c r="V47" s="22"/>
       <c r="W47" s="21"/>
-      <c r="X47" s="54">
+      <c r="X47" s="22">
         <v>46.0</v>
       </c>
       <c r="Y47" s="20" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Z47" s="20" t="s">
         <v>31</v>
@@ -5820,37 +5824,25 @@
         <v>40</v>
       </c>
       <c r="AB47" s="21"/>
-      <c r="AC47" s="54">
-        <v>48.0</v>
-      </c>
-      <c r="AD47" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE47" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF47" s="20" t="s">
-        <v>32</v>
-      </c>
+      <c r="AC47" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD47" s="20"/>
+      <c r="AE47" s="20"/>
+      <c r="AF47" s="20"/>
       <c r="AG47" s="21"/>
-      <c r="AH47" s="54">
-        <v>50.0</v>
-      </c>
-      <c r="AI47" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="AJ47" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK47" s="20" t="s">
-        <v>152</v>
-      </c>
+      <c r="AH47" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI47" s="20"/>
+      <c r="AJ47" s="20"/>
+      <c r="AK47" s="20"/>
       <c r="AL47" s="21"/>
-      <c r="AM47" s="54">
-        <v>43.0</v>
+      <c r="AM47" s="22">
+        <v>42.0</v>
       </c>
       <c r="AN47" s="20" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AO47" s="25"/>
       <c r="AP47" s="25"/>
@@ -5870,61 +5862,53 @@
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="53" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B48" s="20">
         <v>46.0</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="D48" s="36"/>
+        <v>165</v>
+      </c>
+      <c r="D48" s="20"/>
       <c r="E48" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F48" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="I48" s="21"/>
-      <c r="J48" s="22"/>
+      <c r="J48" s="54" t="s">
+        <v>124</v>
+      </c>
       <c r="K48" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L48" s="20" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="M48" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="N48" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="O48" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="P48" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q48" s="20" t="s">
-        <v>175</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
       <c r="R48" s="20"/>
       <c r="S48" s="20"/>
       <c r="T48" s="20"/>
       <c r="U48" s="21"/>
       <c r="V48" s="22"/>
       <c r="W48" s="21"/>
-      <c r="X48" s="54">
-        <v>47.0</v>
-      </c>
-      <c r="Y48" s="20" t="s">
-        <v>176</v>
+      <c r="X48" s="38"/>
+      <c r="Y48" s="36" t="s">
+        <v>128</v>
       </c>
       <c r="Z48" s="20" t="s">
         <v>31</v>
@@ -5932,13 +5916,21 @@
       <c r="AA48" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AB48" s="21"/>
-      <c r="AC48" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD48" s="20"/>
-      <c r="AE48" s="20"/>
-      <c r="AF48" s="20"/>
+      <c r="AB48" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC48" s="22">
+        <v>64.0</v>
+      </c>
+      <c r="AD48" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE48" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF48" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="AG48" s="21"/>
       <c r="AH48" s="22" t="s">
         <v>33</v>
@@ -5947,11 +5939,11 @@
       <c r="AJ48" s="20"/>
       <c r="AK48" s="20"/>
       <c r="AL48" s="21"/>
-      <c r="AM48" s="54">
-        <v>45.0</v>
+      <c r="AM48" s="22">
+        <v>40.0</v>
       </c>
       <c r="AN48" s="20" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="AO48" s="25"/>
       <c r="AP48" s="25"/>
@@ -5970,41 +5962,31 @@
       <c r="BC48" s="25"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="55" t="s">
-        <v>128</v>
+      <c r="A49" s="52" t="s">
+        <v>106</v>
       </c>
       <c r="B49" s="20">
         <v>47.0</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D49" s="20"/>
       <c r="E49" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F49" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H49" s="20" t="s">
-        <v>130</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="H49" s="20"/>
       <c r="I49" s="21"/>
-      <c r="J49" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="K49" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="L49" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="M49" s="20" t="s">
-        <v>134</v>
-      </c>
+      <c r="J49" s="22"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
       <c r="N49" s="20"/>
       <c r="O49" s="20"/>
       <c r="P49" s="20"/>
@@ -6015,9 +5997,11 @@
       <c r="U49" s="21"/>
       <c r="V49" s="22"/>
       <c r="W49" s="21"/>
-      <c r="X49" s="38"/>
-      <c r="Y49" s="36" t="s">
-        <v>135</v>
+      <c r="X49" s="22">
+        <v>48.0</v>
+      </c>
+      <c r="Y49" s="20" t="s">
+        <v>173</v>
       </c>
       <c r="Z49" s="20" t="s">
         <v>31</v>
@@ -6025,21 +6009,13 @@
       <c r="AA49" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AB49" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="AC49" s="22">
-        <v>62.0</v>
-      </c>
-      <c r="AD49" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE49" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF49" s="20" t="s">
-        <v>32</v>
-      </c>
+      <c r="AB49" s="21"/>
+      <c r="AC49" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD49" s="20"/>
+      <c r="AE49" s="20"/>
+      <c r="AF49" s="20"/>
       <c r="AG49" s="21"/>
       <c r="AH49" s="22" t="s">
         <v>33</v>
@@ -6049,10 +6025,10 @@
       <c r="AK49" s="20"/>
       <c r="AL49" s="21"/>
       <c r="AM49" s="22">
-        <v>36.0</v>
+        <v>42.0</v>
       </c>
       <c r="AN49" s="20" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="AO49" s="25"/>
       <c r="AP49" s="25"/>
@@ -6072,38 +6048,40 @@
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="53" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B50" s="20">
         <v>48.0</v>
       </c>
-      <c r="C50" s="29" t="s">
-        <v>165</v>
+      <c r="C50" s="20" t="s">
+        <v>171</v>
       </c>
       <c r="D50" s="20"/>
       <c r="E50" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F50" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G50" s="54" t="s">
-        <v>179</v>
+      <c r="G50" s="22" t="s">
+        <v>122</v>
       </c>
       <c r="H50" s="20" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="I50" s="21"/>
-      <c r="J50" s="22" t="s">
-        <v>88</v>
+      <c r="J50" s="54" t="s">
+        <v>124</v>
       </c>
       <c r="K50" s="20" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L50" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="M50" s="20"/>
+        <v>126</v>
+      </c>
+      <c r="M50" s="20" t="s">
+        <v>127</v>
+      </c>
       <c r="N50" s="20"/>
       <c r="O50" s="20"/>
       <c r="P50" s="20"/>
@@ -6114,11 +6092,9 @@
       <c r="U50" s="21"/>
       <c r="V50" s="22"/>
       <c r="W50" s="21"/>
-      <c r="X50" s="54">
-        <v>49.0</v>
-      </c>
-      <c r="Y50" s="20" t="s">
-        <v>182</v>
+      <c r="X50" s="38"/>
+      <c r="Y50" s="36" t="s">
+        <v>128</v>
       </c>
       <c r="Z50" s="20" t="s">
         <v>31</v>
@@ -6126,13 +6102,21 @@
       <c r="AA50" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AB50" s="21"/>
-      <c r="AC50" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD50" s="20"/>
-      <c r="AE50" s="20"/>
-      <c r="AF50" s="20"/>
+      <c r="AB50" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC50" s="22">
+        <v>65.0</v>
+      </c>
+      <c r="AD50" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE50" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF50" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="AG50" s="21"/>
       <c r="AH50" s="22" t="s">
         <v>33</v>
@@ -6141,11 +6125,11 @@
       <c r="AJ50" s="20"/>
       <c r="AK50" s="20"/>
       <c r="AL50" s="21"/>
-      <c r="AM50" s="54">
-        <v>45.0</v>
+      <c r="AM50" s="22">
+        <v>40.0</v>
       </c>
       <c r="AN50" s="20" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="AO50" s="25"/>
       <c r="AP50" s="25"/>
@@ -6164,41 +6148,35 @@
       <c r="BC50" s="25"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="55" t="s">
-        <v>128</v>
+      <c r="A51" s="52" t="s">
+        <v>106</v>
       </c>
       <c r="B51" s="20">
         <v>49.0</v>
       </c>
-      <c r="C51" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="D51" s="20"/>
+      <c r="C51" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>176</v>
+      </c>
       <c r="E51" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F51" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="22" t="s">
-        <v>129</v>
+      <c r="G51" s="55" t="s">
+        <v>177</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="I51" s="21"/>
-      <c r="J51" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="K51" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="L51" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="M51" s="20" t="s">
-        <v>134</v>
-      </c>
+      <c r="J51" s="22"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
       <c r="N51" s="20"/>
       <c r="O51" s="20"/>
       <c r="P51" s="20"/>
@@ -6209,9 +6187,11 @@
       <c r="U51" s="21"/>
       <c r="V51" s="22"/>
       <c r="W51" s="21"/>
-      <c r="X51" s="38"/>
-      <c r="Y51" s="36" t="s">
-        <v>135</v>
+      <c r="X51" s="22">
+        <v>50.0</v>
+      </c>
+      <c r="Y51" s="20" t="s">
+        <v>179</v>
       </c>
       <c r="Z51" s="20" t="s">
         <v>31</v>
@@ -6219,14 +6199,12 @@
       <c r="AA51" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AB51" s="21" t="s">
-        <v>178</v>
-      </c>
+      <c r="AB51" s="21"/>
       <c r="AC51" s="22">
-        <v>63.0</v>
+        <v>52.0</v>
       </c>
       <c r="AD51" s="20" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="AE51" s="20" t="s">
         <v>31</v>
@@ -6235,18 +6213,16 @@
         <v>32</v>
       </c>
       <c r="AG51" s="21"/>
-      <c r="AH51" s="22" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH51" s="22"/>
       <c r="AI51" s="20"/>
       <c r="AJ51" s="20"/>
       <c r="AK51" s="20"/>
       <c r="AL51" s="21"/>
-      <c r="AM51" s="22">
-        <v>36.0</v>
+      <c r="AM51" s="20">
+        <v>40.0</v>
       </c>
       <c r="AN51" s="20" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="AO51" s="25"/>
       <c r="AP51" s="25"/>
@@ -6265,18 +6241,20 @@
       <c r="BC51" s="25"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="53" t="s">
-        <v>114</v>
+      <c r="A52" s="52" t="s">
+        <v>106</v>
       </c>
       <c r="B52" s="20">
         <v>50.0</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="D52" s="20"/>
+        <v>181</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>182</v>
+      </c>
       <c r="E52" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F52" s="21" t="s">
         <v>24</v>
@@ -6284,8 +6262,12 @@
       <c r="G52" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="H52" s="20"/>
-      <c r="I52" s="21"/>
+      <c r="H52" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="I52" s="21" t="s">
+        <v>185</v>
+      </c>
       <c r="J52" s="22"/>
       <c r="K52" s="20"/>
       <c r="L52" s="20"/>
@@ -6300,11 +6282,11 @@
       <c r="U52" s="21"/>
       <c r="V52" s="22"/>
       <c r="W52" s="21"/>
-      <c r="X52" s="54">
+      <c r="X52" s="22">
         <v>51.0</v>
       </c>
       <c r="Y52" s="20" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Z52" s="20" t="s">
         <v>31</v>
@@ -6327,11 +6309,11 @@
       <c r="AJ52" s="20"/>
       <c r="AK52" s="20"/>
       <c r="AL52" s="21"/>
-      <c r="AM52" s="54">
-        <v>45.0</v>
+      <c r="AM52" s="22">
+        <v>49.0</v>
       </c>
       <c r="AN52" s="20" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="AO52" s="25"/>
       <c r="AP52" s="25"/>
@@ -6350,40 +6332,42 @@
       <c r="BC52" s="25"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="55" t="s">
-        <v>128</v>
+      <c r="A53" s="53" t="s">
+        <v>121</v>
       </c>
       <c r="B53" s="20">
         <v>51.0</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="D53" s="20"/>
+        <v>181</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>182</v>
+      </c>
       <c r="E53" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F53" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I53" s="21"/>
-      <c r="J53" s="56" t="s">
-        <v>131</v>
+      <c r="J53" s="54" t="s">
+        <v>124</v>
       </c>
       <c r="K53" s="20" t="s">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="L53" s="20" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="N53" s="20"/>
       <c r="O53" s="20"/>
@@ -6397,7 +6381,7 @@
       <c r="W53" s="21"/>
       <c r="X53" s="38"/>
       <c r="Y53" s="36" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="Z53" s="20" t="s">
         <v>31</v>
@@ -6406,13 +6390,13 @@
         <v>40</v>
       </c>
       <c r="AB53" s="21" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="AC53" s="22">
-        <v>64.0</v>
+        <v>66.0</v>
       </c>
       <c r="AD53" s="20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="AE53" s="20" t="s">
         <v>31</v>
@@ -6429,10 +6413,10 @@
       <c r="AK53" s="20"/>
       <c r="AL53" s="21"/>
       <c r="AM53" s="22">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
       <c r="AN53" s="20" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="AO53" s="25"/>
       <c r="AP53" s="25"/>
@@ -6451,32 +6435,32 @@
       <c r="BC53" s="25"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="53" t="s">
-        <v>114</v>
+      <c r="A54" s="52" t="s">
+        <v>106</v>
       </c>
       <c r="B54" s="20">
         <v>52.0</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F54" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="I54" s="21" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J54" s="22"/>
       <c r="K54" s="20"/>
@@ -6492,11 +6476,11 @@
       <c r="U54" s="21"/>
       <c r="V54" s="22"/>
       <c r="W54" s="21"/>
-      <c r="X54" s="54">
+      <c r="X54" s="22">
         <v>53.0</v>
       </c>
       <c r="Y54" s="20" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Z54" s="20" t="s">
         <v>31</v>
@@ -6519,11 +6503,11 @@
       <c r="AJ54" s="20"/>
       <c r="AK54" s="20"/>
       <c r="AL54" s="21"/>
-      <c r="AM54" s="54">
-        <v>43.0</v>
+      <c r="AM54" s="22">
+        <v>49.0</v>
       </c>
       <c r="AN54" s="20" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="AO54" s="25"/>
       <c r="AP54" s="25"/>
@@ -6542,42 +6526,42 @@
       <c r="BC54" s="25"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="55" t="s">
-        <v>128</v>
+      <c r="A55" s="53" t="s">
+        <v>121</v>
       </c>
       <c r="B55" s="20">
         <v>53.0</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F55" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I55" s="21"/>
-      <c r="J55" s="56" t="s">
-        <v>131</v>
+      <c r="J55" s="54" t="s">
+        <v>124</v>
       </c>
       <c r="K55" s="20" t="s">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="L55" s="20" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="M55" s="20" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="N55" s="20"/>
       <c r="O55" s="20"/>
@@ -6591,7 +6575,7 @@
       <c r="W55" s="21"/>
       <c r="X55" s="38"/>
       <c r="Y55" s="36" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="Z55" s="20" t="s">
         <v>31</v>
@@ -6600,13 +6584,13 @@
         <v>40</v>
       </c>
       <c r="AB55" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AC55" s="22">
-        <v>65.0</v>
+        <v>67.0</v>
       </c>
       <c r="AD55" s="20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="AE55" s="20" t="s">
         <v>31</v>
@@ -6623,10 +6607,10 @@
       <c r="AK55" s="20"/>
       <c r="AL55" s="21"/>
       <c r="AM55" s="22">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
       <c r="AN55" s="20" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="AO55" s="25"/>
       <c r="AP55" s="25"/>
@@ -6645,33 +6629,29 @@
       <c r="BC55" s="25"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="53" t="s">
-        <v>114</v>
+      <c r="A56" s="52" t="s">
+        <v>106</v>
       </c>
       <c r="B56" s="20">
         <v>54.0</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F56" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="H56" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="I56" s="21" t="s">
-        <v>189</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="21"/>
       <c r="J56" s="22"/>
       <c r="K56" s="20"/>
       <c r="L56" s="20"/>
@@ -6686,11 +6666,11 @@
       <c r="U56" s="21"/>
       <c r="V56" s="22"/>
       <c r="W56" s="21"/>
-      <c r="X56" s="54">
+      <c r="X56" s="22">
         <v>55.0</v>
       </c>
       <c r="Y56" s="20" t="s">
-        <v>196</v>
+        <v>37</v>
       </c>
       <c r="Z56" s="20" t="s">
         <v>31</v>
@@ -6699,12 +6679,18 @@
         <v>40</v>
       </c>
       <c r="AB56" s="21"/>
-      <c r="AC56" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD56" s="20"/>
-      <c r="AE56" s="20"/>
-      <c r="AF56" s="20"/>
+      <c r="AC56" s="22">
+        <v>57.0</v>
+      </c>
+      <c r="AD56" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE56" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF56" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="AG56" s="21"/>
       <c r="AH56" s="22" t="s">
         <v>33</v>
@@ -6713,12 +6699,10 @@
       <c r="AJ56" s="20"/>
       <c r="AK56" s="20"/>
       <c r="AL56" s="21"/>
-      <c r="AM56" s="54">
-        <v>43.0</v>
-      </c>
-      <c r="AN56" s="20" t="s">
-        <v>158</v>
-      </c>
+      <c r="AM56" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN56" s="20"/>
       <c r="AO56" s="25"/>
       <c r="AP56" s="25"/>
       <c r="AQ56" s="25"/>
@@ -6736,43 +6720,35 @@
       <c r="BC56" s="25"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="55" t="s">
-        <v>128</v>
+      <c r="A57" s="52" t="s">
+        <v>106</v>
       </c>
       <c r="B57" s="20">
         <v>55.0</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F57" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H57" s="20" t="s">
-        <v>130</v>
+        <v>199</v>
+      </c>
+      <c r="H57" s="56" t="s">
+        <v>200</v>
       </c>
       <c r="I57" s="21"/>
-      <c r="J57" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="K57" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="L57" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="M57" s="20" t="s">
-        <v>134</v>
-      </c>
+      <c r="J57" s="22"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
       <c r="N57" s="20"/>
       <c r="O57" s="20"/>
       <c r="P57" s="20"/>
@@ -6783,9 +6759,11 @@
       <c r="U57" s="21"/>
       <c r="V57" s="22"/>
       <c r="W57" s="21"/>
-      <c r="X57" s="38"/>
-      <c r="Y57" s="36" t="s">
-        <v>135</v>
+      <c r="X57" s="22">
+        <v>56.0</v>
+      </c>
+      <c r="Y57" s="20" t="s">
+        <v>201</v>
       </c>
       <c r="Z57" s="20" t="s">
         <v>31</v>
@@ -6793,20 +6771,18 @@
       <c r="AA57" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AB57" s="21" t="s">
-        <v>191</v>
-      </c>
+      <c r="AB57" s="21"/>
       <c r="AC57" s="22">
-        <v>66.0</v>
+        <v>57.0</v>
       </c>
       <c r="AD57" s="20" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="AE57" s="20" t="s">
         <v>31</v>
       </c>
       <c r="AF57" s="20" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AG57" s="21"/>
       <c r="AH57" s="22" t="s">
@@ -6816,12 +6792,10 @@
       <c r="AJ57" s="20"/>
       <c r="AK57" s="20"/>
       <c r="AL57" s="21"/>
-      <c r="AM57" s="22">
-        <v>36.0</v>
-      </c>
-      <c r="AN57" s="20" t="s">
-        <v>127</v>
-      </c>
+      <c r="AM57" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN57" s="20"/>
       <c r="AO57" s="25"/>
       <c r="AP57" s="25"/>
       <c r="AQ57" s="25"/>
@@ -6840,36 +6814,42 @@
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="53" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B58" s="20">
         <v>56.0</v>
       </c>
       <c r="C58" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D58" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="D58" s="20" t="s">
-        <v>198</v>
-      </c>
       <c r="E58" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F58" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="H58" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="I58" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="J58" s="22"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
+        <v>123</v>
+      </c>
+      <c r="I58" s="21"/>
+      <c r="J58" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="K58" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="L58" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="M58" s="20" t="s">
+        <v>127</v>
+      </c>
       <c r="N58" s="20"/>
       <c r="O58" s="20"/>
       <c r="P58" s="20"/>
@@ -6880,11 +6860,9 @@
       <c r="U58" s="21"/>
       <c r="V58" s="22"/>
       <c r="W58" s="21"/>
-      <c r="X58" s="54">
-        <v>57.0</v>
-      </c>
-      <c r="Y58" s="20" t="s">
-        <v>37</v>
+      <c r="X58" s="38"/>
+      <c r="Y58" s="36" t="s">
+        <v>128</v>
       </c>
       <c r="Z58" s="20" t="s">
         <v>31</v>
@@ -6892,18 +6870,20 @@
       <c r="AA58" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AB58" s="21"/>
-      <c r="AC58" s="54">
-        <v>36.0</v>
+      <c r="AB58" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC58" s="22">
+        <v>61.0</v>
       </c>
       <c r="AD58" s="20" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="AE58" s="20" t="s">
         <v>31</v>
       </c>
       <c r="AF58" s="20" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AG58" s="21"/>
       <c r="AH58" s="22" t="s">
@@ -6913,10 +6893,12 @@
       <c r="AJ58" s="20"/>
       <c r="AK58" s="20"/>
       <c r="AL58" s="21"/>
-      <c r="AM58" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN58" s="20"/>
+      <c r="AM58" s="22">
+        <v>57.0</v>
+      </c>
+      <c r="AN58" s="20" t="s">
+        <v>120</v>
+      </c>
       <c r="AO58" s="25"/>
       <c r="AP58" s="25"/>
       <c r="AQ58" s="25"/>
@@ -6934,31 +6916,33 @@
       <c r="BC58" s="25"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="53" t="s">
-        <v>114</v>
+      <c r="A59" s="52" t="s">
+        <v>106</v>
       </c>
       <c r="B59" s="20">
         <v>57.0</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F59" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G59" s="22" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H59" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="I59" s="21"/>
+        <v>207</v>
+      </c>
+      <c r="I59" s="21" t="s">
+        <v>208</v>
+      </c>
       <c r="J59" s="22"/>
       <c r="K59" s="20"/>
       <c r="L59" s="20"/>
@@ -6973,11 +6957,11 @@
       <c r="U59" s="21"/>
       <c r="V59" s="22"/>
       <c r="W59" s="21"/>
-      <c r="X59" s="54">
+      <c r="X59" s="22">
         <v>58.0</v>
       </c>
       <c r="Y59" s="20" t="s">
-        <v>204</v>
+        <v>37</v>
       </c>
       <c r="Z59" s="20" t="s">
         <v>31</v>
@@ -6986,11 +6970,11 @@
         <v>40</v>
       </c>
       <c r="AB59" s="21"/>
-      <c r="AC59" s="54">
+      <c r="AC59" s="22">
         <v>36.0</v>
       </c>
-      <c r="AD59" s="29" t="s">
-        <v>127</v>
+      <c r="AD59" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="AE59" s="20" t="s">
         <v>31</v>
@@ -7027,43 +7011,35 @@
       <c r="BC59" s="25"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="55" t="s">
-        <v>128</v>
+      <c r="A60" s="52" t="s">
+        <v>106</v>
       </c>
       <c r="B60" s="20">
         <v>58.0</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F60" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="H60" s="20" t="s">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="I60" s="21"/>
-      <c r="J60" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="K60" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="L60" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="M60" s="20" t="s">
-        <v>134</v>
-      </c>
+      <c r="J60" s="22"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
       <c r="N60" s="20"/>
       <c r="O60" s="20"/>
       <c r="P60" s="20"/>
@@ -7074,9 +7050,11 @@
       <c r="U60" s="21"/>
       <c r="V60" s="22"/>
       <c r="W60" s="21"/>
-      <c r="X60" s="38"/>
-      <c r="Y60" s="36" t="s">
-        <v>135</v>
+      <c r="X60" s="22">
+        <v>59.0</v>
+      </c>
+      <c r="Y60" s="20" t="s">
+        <v>211</v>
       </c>
       <c r="Z60" s="20" t="s">
         <v>31</v>
@@ -7084,20 +7062,18 @@
       <c r="AA60" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AB60" s="21" t="s">
-        <v>205</v>
-      </c>
+      <c r="AB60" s="21"/>
       <c r="AC60" s="22">
-        <v>59.0</v>
+        <v>36.0</v>
       </c>
       <c r="AD60" s="20" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="AE60" s="20" t="s">
         <v>31</v>
       </c>
       <c r="AF60" s="20" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AG60" s="21"/>
       <c r="AH60" s="22" t="s">
@@ -7107,12 +7083,10 @@
       <c r="AJ60" s="20"/>
       <c r="AK60" s="20"/>
       <c r="AL60" s="21"/>
-      <c r="AM60" s="22">
-        <v>36.0</v>
-      </c>
-      <c r="AN60" s="20" t="s">
-        <v>127</v>
-      </c>
+      <c r="AM60" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN60" s="20"/>
       <c r="AO60" s="25"/>
       <c r="AP60" s="25"/>
       <c r="AQ60" s="25"/>
@@ -7130,37 +7104,43 @@
       <c r="BC60" s="25"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="55" t="s">
-        <v>128</v>
+      <c r="A61" s="53" t="s">
+        <v>121</v>
       </c>
       <c r="B61" s="20">
         <v>59.0</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F61" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G61" s="22" t="s">
-        <v>207</v>
+        <v>122</v>
       </c>
       <c r="H61" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="I61" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="J61" s="22"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
+        <v>123</v>
+      </c>
+      <c r="I61" s="21"/>
+      <c r="J61" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="K61" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="L61" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="M61" s="20" t="s">
+        <v>127</v>
+      </c>
       <c r="N61" s="20"/>
       <c r="O61" s="20"/>
       <c r="P61" s="20"/>
@@ -7171,36 +7151,32 @@
       <c r="U61" s="21"/>
       <c r="V61" s="22"/>
       <c r="W61" s="21"/>
-      <c r="X61" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y61" s="20" t="s">
-        <v>137</v>
+      <c r="X61" s="38"/>
+      <c r="Y61" s="36" t="s">
+        <v>128</v>
       </c>
       <c r="Z61" s="20" t="s">
         <v>31</v>
       </c>
       <c r="AA61" s="20" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AB61" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC61" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD61" s="29" t="s">
-        <v>52</v>
+        <v>214</v>
+      </c>
+      <c r="AC61" s="22">
+        <v>60.0</v>
+      </c>
+      <c r="AD61" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="AE61" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AF61" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG61" s="30" t="s">
-        <v>53</v>
-      </c>
+      <c r="AF61" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG61" s="21"/>
       <c r="AH61" s="22" t="s">
         <v>33</v>
       </c>
@@ -7208,10 +7184,12 @@
       <c r="AJ61" s="20"/>
       <c r="AK61" s="20"/>
       <c r="AL61" s="21"/>
-      <c r="AM61" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN61" s="20"/>
+      <c r="AM61" s="22">
+        <v>36.0</v>
+      </c>
+      <c r="AN61" s="20" t="s">
+        <v>212</v>
+      </c>
       <c r="AO61" s="25"/>
       <c r="AP61" s="25"/>
       <c r="AQ61" s="25"/>
@@ -7229,32 +7207,32 @@
       <c r="BC61" s="25"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="55" t="s">
-        <v>128</v>
+      <c r="A62" s="53" t="s">
+        <v>121</v>
       </c>
       <c r="B62" s="20">
         <v>60.0</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F62" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="H62" s="20" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="I62" s="21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="J62" s="22"/>
       <c r="K62" s="20"/>
@@ -7274,7 +7252,7 @@
         <v>33</v>
       </c>
       <c r="Y62" s="20" t="s">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c r="Z62" s="20" t="s">
         <v>31</v>
@@ -7283,13 +7261,13 @@
         <v>32</v>
       </c>
       <c r="AB62" s="21" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="AC62" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AD62" s="29" t="s">
-        <v>52</v>
+      <c r="AD62" s="20" t="s">
+        <v>221</v>
       </c>
       <c r="AE62" s="20" t="s">
         <v>31</v>
@@ -7297,8 +7275,8 @@
       <c r="AF62" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AG62" s="30" t="s">
-        <v>53</v>
+      <c r="AG62" s="35" t="s">
+        <v>222</v>
       </c>
       <c r="AH62" s="22" t="s">
         <v>33</v>
@@ -7328,32 +7306,32 @@
       <c r="BC62" s="25"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="55" t="s">
-        <v>128</v>
+      <c r="A63" s="53" t="s">
+        <v>121</v>
       </c>
       <c r="B63" s="20">
         <v>61.0</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F63" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="H63" s="20" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="I63" s="21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="J63" s="22"/>
       <c r="K63" s="20"/>
@@ -7373,7 +7351,7 @@
         <v>33</v>
       </c>
       <c r="Y63" s="20" t="s">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c r="Z63" s="20" t="s">
         <v>31</v>
@@ -7382,13 +7360,13 @@
         <v>32</v>
       </c>
       <c r="AB63" s="21" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="AC63" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AD63" s="29" t="s">
-        <v>52</v>
+      <c r="AD63" s="20" t="s">
+        <v>221</v>
       </c>
       <c r="AE63" s="20" t="s">
         <v>31</v>
@@ -7396,8 +7374,8 @@
       <c r="AF63" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AG63" s="30" t="s">
-        <v>53</v>
+      <c r="AG63" s="35" t="s">
+        <v>222</v>
       </c>
       <c r="AH63" s="22" t="s">
         <v>33</v>
@@ -7427,32 +7405,32 @@
       <c r="BC63" s="25"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="55" t="s">
-        <v>128</v>
+      <c r="A64" s="53" t="s">
+        <v>121</v>
       </c>
       <c r="B64" s="20">
         <v>62.0</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F64" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="H64" s="20" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="I64" s="21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="J64" s="22"/>
       <c r="K64" s="20"/>
@@ -7472,7 +7450,7 @@
         <v>33</v>
       </c>
       <c r="Y64" s="20" t="s">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c r="Z64" s="20" t="s">
         <v>31</v>
@@ -7481,13 +7459,13 @@
         <v>32</v>
       </c>
       <c r="AB64" s="21" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="AC64" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AD64" s="29" t="s">
-        <v>52</v>
+      <c r="AD64" s="20" t="s">
+        <v>221</v>
       </c>
       <c r="AE64" s="20" t="s">
         <v>31</v>
@@ -7495,8 +7473,8 @@
       <c r="AF64" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AG64" s="30" t="s">
-        <v>53</v>
+      <c r="AG64" s="35" t="s">
+        <v>222</v>
       </c>
       <c r="AH64" s="22" t="s">
         <v>33</v>
@@ -7526,32 +7504,32 @@
       <c r="BC64" s="25"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="55" t="s">
-        <v>128</v>
+      <c r="A65" s="53" t="s">
+        <v>121</v>
       </c>
       <c r="B65" s="20">
         <v>63.0</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D65" s="29" t="s">
-        <v>165</v>
+        <v>215</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>151</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F65" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G65" s="22" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="H65" s="20" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="I65" s="21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="J65" s="22"/>
       <c r="K65" s="20"/>
@@ -7571,7 +7549,7 @@
         <v>33</v>
       </c>
       <c r="Y65" s="20" t="s">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c r="Z65" s="20" t="s">
         <v>31</v>
@@ -7580,13 +7558,13 @@
         <v>32</v>
       </c>
       <c r="AB65" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AC65" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AD65" s="29" t="s">
-        <v>52</v>
+      <c r="AD65" s="20" t="s">
+        <v>221</v>
       </c>
       <c r="AE65" s="20" t="s">
         <v>31</v>
@@ -7594,8 +7572,8 @@
       <c r="AF65" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AG65" s="30" t="s">
-        <v>53</v>
+      <c r="AG65" s="35" t="s">
+        <v>222</v>
       </c>
       <c r="AH65" s="22" t="s">
         <v>33</v>
@@ -7625,32 +7603,32 @@
       <c r="BC65" s="25"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="55" t="s">
-        <v>128</v>
+      <c r="A66" s="53" t="s">
+        <v>121</v>
       </c>
       <c r="B66" s="20">
         <v>64.0</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F66" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="H66" s="20" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="I66" s="21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="J66" s="22"/>
       <c r="K66" s="20"/>
@@ -7670,7 +7648,7 @@
         <v>33</v>
       </c>
       <c r="Y66" s="20" t="s">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c r="Z66" s="20" t="s">
         <v>31</v>
@@ -7679,13 +7657,13 @@
         <v>32</v>
       </c>
       <c r="AB66" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AC66" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AD66" s="29" t="s">
-        <v>52</v>
+      <c r="AD66" s="20" t="s">
+        <v>221</v>
       </c>
       <c r="AE66" s="20" t="s">
         <v>31</v>
@@ -7693,8 +7671,8 @@
       <c r="AF66" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AG66" s="30" t="s">
-        <v>53</v>
+      <c r="AG66" s="35" t="s">
+        <v>222</v>
       </c>
       <c r="AH66" s="22" t="s">
         <v>33</v>
@@ -7724,32 +7702,32 @@
       <c r="BC66" s="25"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="55" t="s">
-        <v>128</v>
+      <c r="A67" s="53" t="s">
+        <v>121</v>
       </c>
       <c r="B67" s="20">
         <v>65.0</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D67" s="36" t="s">
-        <v>185</v>
+        <v>215</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>171</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F67" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G67" s="22" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="H67" s="20" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="I67" s="21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="J67" s="22"/>
       <c r="K67" s="20"/>
@@ -7769,7 +7747,7 @@
         <v>33</v>
       </c>
       <c r="Y67" s="20" t="s">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c r="Z67" s="20" t="s">
         <v>31</v>
@@ -7778,13 +7756,13 @@
         <v>32</v>
       </c>
       <c r="AB67" s="21" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="AC67" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AD67" s="29" t="s">
-        <v>52</v>
+      <c r="AD67" s="20" t="s">
+        <v>221</v>
       </c>
       <c r="AE67" s="20" t="s">
         <v>31</v>
@@ -7792,8 +7770,8 @@
       <c r="AF67" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AG67" s="30" t="s">
-        <v>53</v>
+      <c r="AG67" s="35" t="s">
+        <v>222</v>
       </c>
       <c r="AH67" s="22" t="s">
         <v>33</v>
@@ -7823,32 +7801,32 @@
       <c r="BC67" s="25"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="55" t="s">
-        <v>128</v>
+      <c r="A68" s="53" t="s">
+        <v>121</v>
       </c>
       <c r="B68" s="20">
         <v>66.0</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>192</v>
+        <v>215</v>
+      </c>
+      <c r="D68" s="36" t="s">
+        <v>181</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F68" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G68" s="22" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="H68" s="20" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="I68" s="21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="J68" s="22"/>
       <c r="K68" s="20"/>
@@ -7868,7 +7846,7 @@
         <v>33</v>
       </c>
       <c r="Y68" s="20" t="s">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c r="Z68" s="20" t="s">
         <v>31</v>
@@ -7877,13 +7855,13 @@
         <v>32</v>
       </c>
       <c r="AB68" s="21" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AC68" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AD68" s="29" t="s">
-        <v>52</v>
+      <c r="AD68" s="20" t="s">
+        <v>221</v>
       </c>
       <c r="AE68" s="20" t="s">
         <v>31</v>
@@ -7891,8 +7869,8 @@
       <c r="AF68" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AG68" s="30" t="s">
-        <v>53</v>
+      <c r="AG68" s="35" t="s">
+        <v>222</v>
       </c>
       <c r="AH68" s="22" t="s">
         <v>33</v>
@@ -7922,15 +7900,33 @@
       <c r="BC68" s="25"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="25"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="57"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="21"/>
+      <c r="A69" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" s="20">
+        <v>67.0</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="H69" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="I69" s="21" t="s">
+        <v>218</v>
+      </c>
       <c r="J69" s="22"/>
       <c r="K69" s="20"/>
       <c r="L69" s="20"/>
@@ -7945,22 +7941,46 @@
       <c r="U69" s="21"/>
       <c r="V69" s="22"/>
       <c r="W69" s="21"/>
-      <c r="X69" s="58"/>
-      <c r="Y69" s="20"/>
-      <c r="Z69" s="25"/>
-      <c r="AA69" s="25"/>
-      <c r="AB69" s="21"/>
-      <c r="AC69" s="58"/>
-      <c r="AD69" s="20"/>
-      <c r="AE69" s="25"/>
-      <c r="AF69" s="25"/>
-      <c r="AG69" s="57"/>
-      <c r="AH69" s="58"/>
+      <c r="X69" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y69" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z69" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA69" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB69" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC69" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD69" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE69" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF69" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG69" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH69" s="22" t="s">
+        <v>33</v>
+      </c>
       <c r="AI69" s="20"/>
-      <c r="AJ69" s="25"/>
-      <c r="AK69" s="25"/>
-      <c r="AL69" s="57"/>
-      <c r="AM69" s="58"/>
+      <c r="AJ69" s="20"/>
+      <c r="AK69" s="20"/>
+      <c r="AL69" s="21"/>
+      <c r="AM69" s="22" t="s">
+        <v>33</v>
+      </c>
       <c r="AN69" s="20"/>
       <c r="AO69" s="25"/>
       <c r="AP69" s="25"/>
@@ -19322,61 +19342,61 @@
       <c r="BC268" s="25"/>
     </row>
     <row r="269" ht="14.25" customHeight="1">
-      <c r="A269" s="28"/>
-      <c r="B269" s="28"/>
-      <c r="C269" s="28"/>
-      <c r="D269" s="28"/>
-      <c r="E269" s="28"/>
-      <c r="F269" s="59"/>
-      <c r="G269" s="60"/>
-      <c r="H269" s="28"/>
-      <c r="I269" s="59"/>
-      <c r="J269" s="60"/>
-      <c r="K269" s="28"/>
-      <c r="L269" s="28"/>
-      <c r="M269" s="28"/>
-      <c r="N269" s="28"/>
-      <c r="O269" s="28"/>
-      <c r="P269" s="28"/>
-      <c r="Q269" s="28"/>
-      <c r="R269" s="28"/>
-      <c r="S269" s="28"/>
-      <c r="T269" s="28"/>
-      <c r="U269" s="59"/>
-      <c r="V269" s="60"/>
-      <c r="W269" s="59"/>
-      <c r="X269" s="60"/>
-      <c r="Y269" s="28"/>
-      <c r="Z269" s="28"/>
-      <c r="AA269" s="28"/>
-      <c r="AB269" s="59"/>
-      <c r="AC269" s="60"/>
-      <c r="AD269" s="28"/>
-      <c r="AE269" s="28"/>
-      <c r="AF269" s="28"/>
-      <c r="AG269" s="59"/>
-      <c r="AH269" s="60"/>
-      <c r="AI269" s="28"/>
-      <c r="AJ269" s="28"/>
-      <c r="AK269" s="28"/>
-      <c r="AL269" s="59"/>
-      <c r="AM269" s="60"/>
-      <c r="AN269" s="28"/>
-      <c r="AO269" s="28"/>
-      <c r="AP269" s="28"/>
-      <c r="AQ269" s="28"/>
-      <c r="AR269" s="28"/>
-      <c r="AS269" s="28"/>
-      <c r="AT269" s="28"/>
-      <c r="AU269" s="28"/>
-      <c r="AV269" s="28"/>
-      <c r="AW269" s="28"/>
-      <c r="AX269" s="28"/>
-      <c r="AY269" s="28"/>
-      <c r="AZ269" s="28"/>
-      <c r="BA269" s="28"/>
-      <c r="BB269" s="28"/>
-      <c r="BC269" s="28"/>
+      <c r="A269" s="25"/>
+      <c r="B269" s="25"/>
+      <c r="C269" s="20"/>
+      <c r="D269" s="20"/>
+      <c r="E269" s="20"/>
+      <c r="F269" s="57"/>
+      <c r="G269" s="22"/>
+      <c r="H269" s="20"/>
+      <c r="I269" s="21"/>
+      <c r="J269" s="22"/>
+      <c r="K269" s="20"/>
+      <c r="L269" s="20"/>
+      <c r="M269" s="20"/>
+      <c r="N269" s="20"/>
+      <c r="O269" s="20"/>
+      <c r="P269" s="20"/>
+      <c r="Q269" s="20"/>
+      <c r="R269" s="20"/>
+      <c r="S269" s="20"/>
+      <c r="T269" s="20"/>
+      <c r="U269" s="21"/>
+      <c r="V269" s="22"/>
+      <c r="W269" s="21"/>
+      <c r="X269" s="58"/>
+      <c r="Y269" s="20"/>
+      <c r="Z269" s="25"/>
+      <c r="AA269" s="25"/>
+      <c r="AB269" s="21"/>
+      <c r="AC269" s="58"/>
+      <c r="AD269" s="20"/>
+      <c r="AE269" s="25"/>
+      <c r="AF269" s="25"/>
+      <c r="AG269" s="57"/>
+      <c r="AH269" s="58"/>
+      <c r="AI269" s="20"/>
+      <c r="AJ269" s="25"/>
+      <c r="AK269" s="25"/>
+      <c r="AL269" s="57"/>
+      <c r="AM269" s="58"/>
+      <c r="AN269" s="20"/>
+      <c r="AO269" s="25"/>
+      <c r="AP269" s="25"/>
+      <c r="AQ269" s="25"/>
+      <c r="AR269" s="25"/>
+      <c r="AS269" s="25"/>
+      <c r="AT269" s="25"/>
+      <c r="AU269" s="25"/>
+      <c r="AV269" s="25"/>
+      <c r="AW269" s="25"/>
+      <c r="AX269" s="25"/>
+      <c r="AY269" s="25"/>
+      <c r="AZ269" s="25"/>
+      <c r="BA269" s="25"/>
+      <c r="BB269" s="25"/>
+      <c r="BC269" s="25"/>
     </row>
     <row r="270" ht="14.25" customHeight="1">
       <c r="A270" s="28"/>
@@ -61045,6 +61065,63 @@
       <c r="BB1000" s="28"/>
       <c r="BC1000" s="28"/>
     </row>
+    <row r="1001" ht="14.25" customHeight="1">
+      <c r="A1001" s="28"/>
+      <c r="B1001" s="28"/>
+      <c r="C1001" s="28"/>
+      <c r="D1001" s="28"/>
+      <c r="E1001" s="28"/>
+      <c r="F1001" s="59"/>
+      <c r="G1001" s="60"/>
+      <c r="H1001" s="28"/>
+      <c r="I1001" s="59"/>
+      <c r="J1001" s="60"/>
+      <c r="K1001" s="28"/>
+      <c r="L1001" s="28"/>
+      <c r="M1001" s="28"/>
+      <c r="N1001" s="28"/>
+      <c r="O1001" s="28"/>
+      <c r="P1001" s="28"/>
+      <c r="Q1001" s="28"/>
+      <c r="R1001" s="28"/>
+      <c r="S1001" s="28"/>
+      <c r="T1001" s="28"/>
+      <c r="U1001" s="59"/>
+      <c r="V1001" s="60"/>
+      <c r="W1001" s="59"/>
+      <c r="X1001" s="60"/>
+      <c r="Y1001" s="28"/>
+      <c r="Z1001" s="28"/>
+      <c r="AA1001" s="28"/>
+      <c r="AB1001" s="59"/>
+      <c r="AC1001" s="60"/>
+      <c r="AD1001" s="28"/>
+      <c r="AE1001" s="28"/>
+      <c r="AF1001" s="28"/>
+      <c r="AG1001" s="59"/>
+      <c r="AH1001" s="60"/>
+      <c r="AI1001" s="28"/>
+      <c r="AJ1001" s="28"/>
+      <c r="AK1001" s="28"/>
+      <c r="AL1001" s="59"/>
+      <c r="AM1001" s="60"/>
+      <c r="AN1001" s="28"/>
+      <c r="AO1001" s="28"/>
+      <c r="AP1001" s="28"/>
+      <c r="AQ1001" s="28"/>
+      <c r="AR1001" s="28"/>
+      <c r="AS1001" s="28"/>
+      <c r="AT1001" s="28"/>
+      <c r="AU1001" s="28"/>
+      <c r="AV1001" s="28"/>
+      <c r="AW1001" s="28"/>
+      <c r="AX1001" s="28"/>
+      <c r="AY1001" s="28"/>
+      <c r="AZ1001" s="28"/>
+      <c r="BA1001" s="28"/>
+      <c r="BB1001" s="28"/>
+      <c r="BC1001" s="28"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="G1:I1"/>
@@ -61054,30 +61131,19 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId2" ref="V3"/>
-    <hyperlink r:id="rId3" ref="AB6"/>
-    <hyperlink r:id="rId4" ref="AB9"/>
-    <hyperlink r:id="rId5" ref="AB12"/>
-    <hyperlink r:id="rId6" ref="AB15"/>
-    <hyperlink r:id="rId7" ref="AB18"/>
-    <hyperlink r:id="rId8" ref="AB21"/>
-    <hyperlink r:id="rId9" ref="AB24"/>
-    <hyperlink r:id="rId10" ref="AB27"/>
-    <hyperlink r:id="rId11" ref="AB30"/>
-    <hyperlink r:id="rId12" ref="AB33"/>
-    <hyperlink r:id="rId13" ref="AB36"/>
-    <hyperlink r:id="rId14" ref="AG61"/>
-    <hyperlink r:id="rId15" ref="AG62"/>
-    <hyperlink r:id="rId16" ref="AG63"/>
-    <hyperlink r:id="rId17" ref="AG64"/>
-    <hyperlink r:id="rId18" ref="AG65"/>
-    <hyperlink r:id="rId19" ref="AG66"/>
-    <hyperlink r:id="rId20" ref="AG67"/>
-    <hyperlink r:id="rId21" ref="AG68"/>
+    <hyperlink r:id="rId3" ref="AG62"/>
+    <hyperlink r:id="rId4" ref="AG63"/>
+    <hyperlink r:id="rId5" ref="AG64"/>
+    <hyperlink r:id="rId6" ref="AG65"/>
+    <hyperlink r:id="rId7" ref="AG66"/>
+    <hyperlink r:id="rId8" ref="AG67"/>
+    <hyperlink r:id="rId9" ref="AG68"/>
+    <hyperlink r:id="rId10" ref="AG69"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId22"/>
-  <legacyDrawing r:id="rId23"/>
+  <drawing r:id="rId11"/>
+  <legacyDrawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/make_lrt_json/LAT-content_Mod1_2.xlsx
+++ b/make_lrt_json/LAT-content_Mod1_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamika.dual\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amiadhgrandt-nesher/Workbench/aaa/make_lrt_json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204BC809-28E8-4E4A-AF72-6DF987B70E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157B4526-7034-4B4A-87F3-05B87D9088A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="-14980" windowWidth="67200" windowHeight="37300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Content by Screen" sheetId="1" r:id="rId1"/>
@@ -836,22 +836,22 @@
     <t>https://offices.sc.egov.usda.gov/locator/app?state=us&amp;agency=fsa</t>
   </si>
   <si>
-    <t>/walkthrough.html?youth</t>
+    <t>/walkthrough.html?loan_type=youth</t>
   </si>
   <si>
-    <t>/walkthrough.html?emergency</t>
+    <t>/walkthrough.html?loan_type=emergency</t>
   </si>
   <si>
-    <t>/walkthrough.html?microloan</t>
+    <t>/walkthrough.html?loan_type=microloan</t>
   </si>
   <si>
-    <t>/walkthrough.html?ownership</t>
+    <t>/walkthrough.html?loan_type=ownership</t>
   </si>
   <si>
-    <t>/walkthrough.html?term</t>
+    <t>/walkthrough.html?loan_type=term</t>
   </si>
   <si>
-    <t>/walkthrough.html?annual</t>
+    <t>/walkthrough.html?loan_type=annual</t>
   </si>
 </sst>
 </file>
@@ -1581,50 +1581,50 @@
   </sheetPr>
   <dimension ref="A1:BC1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="X60" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="X40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y73" sqref="Y73"/>
+      <selection pane="bottomRight" activeCell="AB61" sqref="AB61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" customWidth="1"/>
-    <col min="2" max="2" width="3.26953125" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" customWidth="1"/>
-    <col min="7" max="7" width="30.26953125" customWidth="1"/>
-    <col min="8" max="8" width="29.7265625" customWidth="1"/>
-    <col min="9" max="9" width="29.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" customWidth="1"/>
+    <col min="9" max="9" width="29.5" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="12" max="12" width="16.08984375" customWidth="1"/>
-    <col min="14" max="14" width="13.453125" customWidth="1"/>
-    <col min="15" max="15" width="13.08984375" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="20" max="20" width="14.08984375" customWidth="1"/>
-    <col min="21" max="21" width="13.81640625" customWidth="1"/>
-    <col min="22" max="22" width="22.08984375" customWidth="1"/>
-    <col min="23" max="23" width="11.7265625" customWidth="1"/>
-    <col min="24" max="24" width="10.453125" customWidth="1"/>
-    <col min="25" max="25" width="13.453125" customWidth="1"/>
-    <col min="26" max="26" width="7.08984375" customWidth="1"/>
-    <col min="27" max="27" width="10.08984375" customWidth="1"/>
-    <col min="28" max="28" width="25.26953125" customWidth="1"/>
-    <col min="29" max="29" width="11.7265625" customWidth="1"/>
-    <col min="30" max="30" width="10.453125" customWidth="1"/>
-    <col min="31" max="31" width="5.453125" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" customWidth="1"/>
+    <col min="21" max="21" width="13.83203125" customWidth="1"/>
+    <col min="22" max="22" width="22.1640625" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" customWidth="1"/>
+    <col min="24" max="24" width="10.5" customWidth="1"/>
+    <col min="25" max="25" width="13.5" customWidth="1"/>
+    <col min="26" max="26" width="7.1640625" customWidth="1"/>
+    <col min="27" max="27" width="10.1640625" customWidth="1"/>
+    <col min="28" max="28" width="25.33203125" customWidth="1"/>
+    <col min="29" max="29" width="11.6640625" customWidth="1"/>
+    <col min="30" max="30" width="10.5" customWidth="1"/>
+    <col min="31" max="31" width="5.5" customWidth="1"/>
     <col min="32" max="32" width="10" customWidth="1"/>
-    <col min="33" max="33" width="11.81640625" customWidth="1"/>
+    <col min="33" max="33" width="11.83203125" customWidth="1"/>
     <col min="34" max="34" width="12" customWidth="1"/>
     <col min="35" max="35" width="11" customWidth="1"/>
-    <col min="36" max="36" width="5.453125" customWidth="1"/>
+    <col min="36" max="36" width="5.5" customWidth="1"/>
     <col min="37" max="37" width="10" customWidth="1"/>
-    <col min="38" max="38" width="17.453125" customWidth="1"/>
+    <col min="38" max="38" width="17.5" customWidth="1"/>
     <col min="39" max="39" width="14" customWidth="1"/>
-    <col min="40" max="40" width="11.7265625" customWidth="1"/>
+    <col min="40" max="40" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55">
